--- a/VT_REG1_PRI_V12.xlsx
+++ b/VT_REG1_PRI_V12.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\VEDA_Models\DemoS_ADV_Stuttgart061118\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\VEDA_Models\Demo_Adv_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E43A3C3-573C-4B54-9F24-259C34DFD151}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6E5940-FC65-479F-A362-B141E4264441}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="570" windowWidth="25080" windowHeight="15030" tabRatio="901" activeTab="2"/>
+    <workbookView xWindow="7500" yWindow="1335" windowWidth="18135" windowHeight="11025" tabRatio="901" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EB1" sheetId="133" r:id="rId1"/>
@@ -47,14 +47,14 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="I3" authorId="0" shapeId="0">
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -168,7 +168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="1" shapeId="0">
+    <comment ref="N3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -194,7 +194,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="2" shapeId="0">
+    <comment ref="O3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -267,7 +267,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="2" shapeId="0">
+    <comment ref="P3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -320,7 +320,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="2" shapeId="0">
+    <comment ref="Q3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -353,7 +353,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G8" authorId="2" shapeId="0">
+    <comment ref="G8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -400,7 +400,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O8" authorId="2" shapeId="0">
+    <comment ref="O8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -493,7 +493,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P8" authorId="1" shapeId="0">
+    <comment ref="P8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
@@ -518,7 +518,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q8" authorId="2" shapeId="0">
+    <comment ref="Q8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
       <text>
         <r>
           <rPr>
@@ -581,7 +581,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I9" authorId="2" shapeId="0">
+    <comment ref="I9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -829,14 +829,14 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="I3" authorId="0" shapeId="0">
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -950,7 +950,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="1" shapeId="0">
+    <comment ref="N3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -976,7 +976,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="2" shapeId="0">
+    <comment ref="O3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1049,7 +1049,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="2" shapeId="0">
+    <comment ref="P3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1102,7 +1102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="2" shapeId="0">
+    <comment ref="Q3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1135,7 +1135,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G8" authorId="2" shapeId="0">
+    <comment ref="G8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1182,7 +1182,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O8" authorId="2" shapeId="0">
+    <comment ref="O8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1275,7 +1275,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P8" authorId="1" shapeId="0">
+    <comment ref="P8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
       <text>
         <r>
           <rPr>
@@ -1300,7 +1300,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q8" authorId="2" shapeId="0">
+    <comment ref="Q8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
       <text>
         <r>
           <rPr>
@@ -1363,7 +1363,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I9" authorId="2" shapeId="0">
+    <comment ref="I9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -1611,14 +1611,14 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="I3" authorId="0" shapeId="0">
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1732,7 +1732,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="1" shapeId="0">
+    <comment ref="N3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1758,7 +1758,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="2" shapeId="0">
+    <comment ref="O3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1831,7 +1831,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="2" shapeId="0">
+    <comment ref="P3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1884,7 +1884,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="2" shapeId="0">
+    <comment ref="Q3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1917,7 +1917,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G8" authorId="2" shapeId="0">
+    <comment ref="G8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1964,7 +1964,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O8" authorId="2" shapeId="0">
+    <comment ref="O8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-000007000000}">
       <text>
         <r>
           <rPr>
@@ -2057,7 +2057,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P8" authorId="1" shapeId="0">
+    <comment ref="P8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000008000000}">
       <text>
         <r>
           <rPr>
@@ -2082,7 +2082,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q8" authorId="2" shapeId="0">
+    <comment ref="Q8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-000009000000}">
       <text>
         <r>
           <rPr>
@@ -2145,7 +2145,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I9" authorId="2" shapeId="0">
+    <comment ref="I9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -2393,14 +2393,14 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="H3" authorId="0" shapeId="0">
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -2514,7 +2514,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M3" authorId="1" shapeId="0">
+    <comment ref="M3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -2540,7 +2540,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="2" shapeId="0">
+    <comment ref="N3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
       <text>
         <r>
           <rPr>
@@ -2613,7 +2613,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="2" shapeId="0">
+    <comment ref="O3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
       <text>
         <r>
           <rPr>
@@ -2666,7 +2666,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="2" shapeId="0">
+    <comment ref="P3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0500-000005000000}">
       <text>
         <r>
           <rPr>
@@ -2699,7 +2699,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F8" authorId="2" shapeId="0">
+    <comment ref="F8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0500-000006000000}">
       <text>
         <r>
           <rPr>
@@ -2746,7 +2746,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N8" authorId="2" shapeId="0">
+    <comment ref="N8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0500-000007000000}">
       <text>
         <r>
           <rPr>
@@ -2839,7 +2839,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O8" authorId="1" shapeId="0">
+    <comment ref="O8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0500-000008000000}">
       <text>
         <r>
           <rPr>
@@ -2864,7 +2864,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P8" authorId="2" shapeId="0">
+    <comment ref="P8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0500-000009000000}">
       <text>
         <r>
           <rPr>
@@ -2927,7 +2927,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H9" authorId="2" shapeId="0">
+    <comment ref="H9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -3175,14 +3175,14 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="H3" authorId="0" shapeId="0">
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -3296,7 +3296,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M3" authorId="1" shapeId="0">
+    <comment ref="M3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
       <text>
         <r>
           <rPr>
@@ -3322,7 +3322,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="2" shapeId="0">
+    <comment ref="N3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0600-000003000000}">
       <text>
         <r>
           <rPr>
@@ -3395,7 +3395,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="2" shapeId="0">
+    <comment ref="O3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0600-000004000000}">
       <text>
         <r>
           <rPr>
@@ -3448,7 +3448,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="2" shapeId="0">
+    <comment ref="P3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0600-000005000000}">
       <text>
         <r>
           <rPr>
@@ -3481,7 +3481,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F11" authorId="2" shapeId="0">
+    <comment ref="F11" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0600-000006000000}">
       <text>
         <r>
           <rPr>
@@ -3528,7 +3528,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N11" authorId="2" shapeId="0">
+    <comment ref="N11" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0600-000007000000}">
       <text>
         <r>
           <rPr>
@@ -3621,7 +3621,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O11" authorId="1" shapeId="0">
+    <comment ref="O11" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-000008000000}">
       <text>
         <r>
           <rPr>
@@ -3646,7 +3646,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P11" authorId="2" shapeId="0">
+    <comment ref="P11" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0600-000009000000}">
       <text>
         <r>
           <rPr>
@@ -3709,7 +3709,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H12" authorId="2" shapeId="0">
+    <comment ref="H12" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -3957,14 +3957,14 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="H3" authorId="0" shapeId="0">
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
       <text>
         <r>
           <rPr>
@@ -4078,7 +4078,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M3" authorId="1" shapeId="0">
+    <comment ref="M3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
       <text>
         <r>
           <rPr>
@@ -4104,7 +4104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="2" shapeId="0">
+    <comment ref="N3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0700-000003000000}">
       <text>
         <r>
           <rPr>
@@ -4177,7 +4177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="2" shapeId="0">
+    <comment ref="O3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0700-000004000000}">
       <text>
         <r>
           <rPr>
@@ -4230,7 +4230,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="2" shapeId="0">
+    <comment ref="P3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0700-000005000000}">
       <text>
         <r>
           <rPr>
@@ -4263,7 +4263,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F14" authorId="2" shapeId="0">
+    <comment ref="F14" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0700-000006000000}">
       <text>
         <r>
           <rPr>
@@ -4310,7 +4310,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N14" authorId="2" shapeId="0">
+    <comment ref="N14" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0700-000007000000}">
       <text>
         <r>
           <rPr>
@@ -4403,7 +4403,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O14" authorId="1" shapeId="0">
+    <comment ref="O14" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0700-000008000000}">
       <text>
         <r>
           <rPr>
@@ -4428,7 +4428,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P14" authorId="2" shapeId="0">
+    <comment ref="P14" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0700-000009000000}">
       <text>
         <r>
           <rPr>
@@ -4491,7 +4491,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H15" authorId="2" shapeId="0">
+    <comment ref="H15" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0700-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -4739,14 +4739,14 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="H3" authorId="0" shapeId="0">
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
       <text>
         <r>
           <rPr>
@@ -4860,7 +4860,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M3" authorId="1" shapeId="0">
+    <comment ref="M3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0800-000002000000}">
       <text>
         <r>
           <rPr>
@@ -4886,7 +4886,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="2" shapeId="0">
+    <comment ref="N3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0800-000003000000}">
       <text>
         <r>
           <rPr>
@@ -4959,7 +4959,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="2" shapeId="0">
+    <comment ref="O3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0800-000004000000}">
       <text>
         <r>
           <rPr>
@@ -5012,7 +5012,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="2" shapeId="0">
+    <comment ref="P3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0800-000005000000}">
       <text>
         <r>
           <rPr>
@@ -5045,7 +5045,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F12" authorId="2" shapeId="0">
+    <comment ref="F12" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0800-000006000000}">
       <text>
         <r>
           <rPr>
@@ -5092,7 +5092,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N12" authorId="2" shapeId="0">
+    <comment ref="N12" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0800-000007000000}">
       <text>
         <r>
           <rPr>
@@ -5185,7 +5185,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O12" authorId="1" shapeId="0">
+    <comment ref="O12" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0800-000008000000}">
       <text>
         <r>
           <rPr>
@@ -5210,7 +5210,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P12" authorId="2" shapeId="0">
+    <comment ref="P12" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0800-000009000000}">
       <text>
         <r>
           <rPr>
@@ -5273,7 +5273,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H13" authorId="2" shapeId="0">
+    <comment ref="H13" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0800-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -5521,14 +5521,14 @@
 </file>
 
 <file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="J3" authorId="0" shapeId="0">
+    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000001000000}">
       <text>
         <r>
           <rPr>
@@ -5642,7 +5642,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="1" shapeId="0">
+    <comment ref="O3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0900-000002000000}">
       <text>
         <r>
           <rPr>
@@ -5668,7 +5668,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="2" shapeId="0">
+    <comment ref="P3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0900-000003000000}">
       <text>
         <r>
           <rPr>
@@ -5741,7 +5741,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="2" shapeId="0">
+    <comment ref="Q3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0900-000004000000}">
       <text>
         <r>
           <rPr>
@@ -5794,7 +5794,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="2" shapeId="0">
+    <comment ref="R3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0900-000005000000}">
       <text>
         <r>
           <rPr>
@@ -5827,7 +5827,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P9" authorId="2" shapeId="0">
+    <comment ref="P9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0900-000006000000}">
       <text>
         <r>
           <rPr>
@@ -5920,7 +5920,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q9" authorId="1" shapeId="0">
+    <comment ref="Q9" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0900-000007000000}">
       <text>
         <r>
           <rPr>
@@ -5945,7 +5945,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R9" authorId="2" shapeId="0">
+    <comment ref="R9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0900-000008000000}">
       <text>
         <r>
           <rPr>
@@ -6008,7 +6008,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J10" authorId="2" shapeId="0">
+    <comment ref="J10" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0900-000009000000}">
       <text>
         <r>
           <rPr>
@@ -6256,14 +6256,14 @@
 </file>
 
 <file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="B10" authorId="0" shapeId="0">
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -6377,7 +6377,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G10" authorId="1" shapeId="0">
+    <comment ref="G10" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000002000000}">
       <text>
         <r>
           <rPr>
@@ -6403,7 +6403,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H10" authorId="2" shapeId="0">
+    <comment ref="H10" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000003000000}">
       <text>
         <r>
           <rPr>
@@ -6476,7 +6476,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I10" authorId="2" shapeId="0">
+    <comment ref="I10" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000004000000}">
       <text>
         <r>
           <rPr>
@@ -6529,7 +6529,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J10" authorId="2" shapeId="0">
+    <comment ref="J10" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000005000000}">
       <text>
         <r>
           <rPr>
@@ -6567,7 +6567,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="153">
   <si>
     <t>CommName</t>
   </si>
@@ -7031,13 +7031,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="171" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="187" formatCode="General_)"/>
-    <numFmt numFmtId="195" formatCode="\Te\x\t"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="General_)"/>
+    <numFmt numFmtId="166" formatCode="\Te\x\t"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -7067,32 +7067,6 @@
       <sz val="10"/>
       <color indexed="12"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
@@ -7587,26 +7561,26 @@
   </borders>
   <cellStyleXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="119">
@@ -7625,19 +7599,19 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7646,19 +7620,19 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="24" fillId="0" borderId="5" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="5" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="24" fillId="0" borderId="6" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="6" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -7671,28 +7645,28 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="21" fillId="8" borderId="0" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="187" fontId="19" fillId="6" borderId="4" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="17" fillId="8" borderId="0" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="15" fillId="6" borderId="4" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="19" fillId="6" borderId="17" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="15" fillId="6" borderId="17" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="19" fillId="6" borderId="18" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="15" fillId="6" borderId="18" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -7704,7 +7678,7 @@
     <xf numFmtId="2" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7719,27 +7693,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="3" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="187" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="187" fontId="13" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="19" fillId="6" borderId="19" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="15" fillId="6" borderId="19" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7751,40 +7725,40 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="5" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="187" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="187" fontId="13" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="3" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="187" fontId="13" fillId="13" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="13" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="19" fillId="6" borderId="20" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="15" fillId="6" borderId="20" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="14" borderId="0" xfId="18" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -7792,37 +7766,37 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="195" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="195" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="195" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="195" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="195" fontId="25" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="21" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="195" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="195" fontId="25" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="21" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -7831,24 +7805,24 @@
     <cellStyle name="60% - Accent2" xfId="2" builtinId="36"/>
     <cellStyle name="Accent2" xfId="3" builtinId="33"/>
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
-    <cellStyle name="Comma 2" xfId="5"/>
+    <cellStyle name="Comma 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Good" xfId="6" builtinId="26"/>
     <cellStyle name="Input" xfId="7" builtinId="20"/>
-    <cellStyle name="Migliaia_tab emissioni" xfId="8"/>
+    <cellStyle name="Migliaia_tab emissioni" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="Neutral" xfId="9" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="10"/>
-    <cellStyle name="Normal 2" xfId="11"/>
-    <cellStyle name="Normal 4" xfId="12"/>
-    <cellStyle name="Normal 4 2" xfId="13"/>
-    <cellStyle name="Normal 8" xfId="14"/>
-    <cellStyle name="Normal 9 2" xfId="15"/>
-    <cellStyle name="Normale_B2020" xfId="16"/>
+    <cellStyle name="Normal 10" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Normal 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Normal 4" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Normal 4 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Normal 8" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Normal 9 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Normale_B2020" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
     <cellStyle name="Percent" xfId="17" builtinId="5"/>
-    <cellStyle name="Percent 2" xfId="18"/>
-    <cellStyle name="Percent 3" xfId="19"/>
-    <cellStyle name="Percent 4" xfId="20"/>
-    <cellStyle name="Standard_Sce_D_Extraction" xfId="21"/>
+    <cellStyle name="Percent 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Percent 3" xfId="19" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Percent 4" xfId="20" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Standard_Sce_D_Extraction" xfId="21" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -11366,7 +11340,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
@@ -12416,7 +12390,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B1:R24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -12988,7 +12962,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="B4:S12"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
@@ -13172,7 +13146,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:R44"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
@@ -13257,10 +13231,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -13988,7 +13962,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:R34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -14723,7 +14697,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:W34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -15393,7 +15367,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:Q38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -15998,7 +15972,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:Q40"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -16733,7 +16707,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B1:V36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -17819,11 +17793,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B1:V22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18044,13 +18018,9 @@
       <c r="Q10"/>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="D11" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="D11" s="4"/>
       <c r="E11" s="4"/>
-      <c r="H11" s="106" t="s">
-        <v>15</v>
-      </c>
+      <c r="H11" s="106"/>
       <c r="I11" s="106"/>
       <c r="J11" s="113"/>
       <c r="K11" s="113"/>

--- a/VT_REG1_PRI_V12.xlsx
+++ b/VT_REG1_PRI_V12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\VEDA_Models\Demo_Adv_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6E5940-FC65-479F-A362-B141E4264441}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45BB00F6-56ED-4E62-8865-399A776B69F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7500" yWindow="1335" windowWidth="18135" windowHeight="11025" tabRatio="901" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4815" yWindow="1410" windowWidth="20040" windowHeight="14190" tabRatio="901" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EB1" sheetId="133" r:id="rId1"/>
@@ -6567,7 +6567,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="146">
   <si>
     <t>CommName</t>
   </si>
@@ -6995,30 +6995,6 @@
     <t>Crude Oil</t>
   </si>
   <si>
-    <t>~COMAGG</t>
-  </si>
-  <si>
-    <t>AGRCO2</t>
-  </si>
-  <si>
-    <t>COMCO2</t>
-  </si>
-  <si>
-    <t>RSDCO2</t>
-  </si>
-  <si>
-    <t>ELCCO2</t>
-  </si>
-  <si>
-    <t>TRACO2</t>
-  </si>
-  <si>
-    <t>INDCO2</t>
-  </si>
-  <si>
-    <t>TOTCO2</t>
-  </si>
-  <si>
     <t>ENV</t>
   </si>
   <si>
@@ -7026,6 +7002,9 @@
   </si>
   <si>
     <t>~FI_T: FX</t>
+  </si>
+  <si>
+    <t>TOTCO2</t>
   </si>
 </sst>
 </file>
@@ -7215,7 +7194,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7298,12 +7277,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7583,7 +7556,7 @@
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7761,15 +7734,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12467,44 +12431,44 @@
       <c r="H2" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="J2" s="106" t="s">
+      <c r="J2" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="106"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="107"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="107"/>
-      <c r="R2" s="107"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="102"/>
+      <c r="R2" s="102"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="J3" s="108" t="s">
+      <c r="J3" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="109" t="s">
+      <c r="K3" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="108" t="s">
+      <c r="L3" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="108" t="s">
+      <c r="M3" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="108" t="s">
+      <c r="N3" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="108" t="s">
+      <c r="O3" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="108" t="s">
+      <c r="P3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="108" t="s">
+      <c r="Q3" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="108" t="s">
+      <c r="R3" s="103" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12514,31 +12478,31 @@
       <c r="D4" s="41"/>
       <c r="E4" s="41"/>
       <c r="H4" s="97"/>
-      <c r="J4" s="110" t="s">
+      <c r="J4" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="110" t="s">
+      <c r="K4" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="110" t="s">
+      <c r="L4" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="110" t="s">
+      <c r="M4" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="110" t="s">
+      <c r="N4" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="O4" s="110" t="s">
+      <c r="O4" s="105" t="s">
         <v>40</v>
       </c>
-      <c r="P4" s="110" t="s">
+      <c r="P4" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="Q4" s="110" t="s">
+      <c r="Q4" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="110" t="s">
+      <c r="R4" s="105" t="s">
         <v>29</v>
       </c>
     </row>
@@ -12571,17 +12535,17 @@
       <c r="G8" s="96"/>
       <c r="H8" s="96"/>
       <c r="I8" s="35"/>
-      <c r="J8" s="106" t="s">
+      <c r="J8" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="106"/>
-      <c r="L8" s="107"/>
-      <c r="M8" s="107"/>
-      <c r="N8" s="107"/>
-      <c r="O8" s="107"/>
-      <c r="P8" s="107"/>
-      <c r="Q8" s="107"/>
-      <c r="R8" s="107"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
+      <c r="N8" s="102"/>
+      <c r="O8" s="102"/>
+      <c r="P8" s="102"/>
+      <c r="Q8" s="102"/>
+      <c r="R8" s="102"/>
     </row>
     <row r="9" spans="2:18" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="20" t="s">
@@ -12604,31 +12568,31 @@
       </c>
       <c r="H9" s="98"/>
       <c r="I9" s="37"/>
-      <c r="J9" s="108" t="s">
+      <c r="J9" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="109" t="s">
+      <c r="K9" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="108" t="s">
+      <c r="L9" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="M9" s="108" t="s">
+      <c r="M9" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="N9" s="108" t="s">
+      <c r="N9" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="O9" s="108" t="s">
+      <c r="O9" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="P9" s="108" t="s">
+      <c r="P9" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="Q9" s="108" t="s">
+      <c r="Q9" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="R9" s="108" t="s">
+      <c r="R9" s="103" t="s">
         <v>20</v>
       </c>
     </row>
@@ -12653,31 +12617,31 @@
       </c>
       <c r="H10" s="99"/>
       <c r="I10" s="35"/>
-      <c r="J10" s="110" t="s">
+      <c r="J10" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="K10" s="110" t="s">
+      <c r="K10" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="L10" s="110" t="s">
+      <c r="L10" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="M10" s="110" t="s">
+      <c r="M10" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="N10" s="110" t="s">
+      <c r="N10" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="O10" s="110" t="s">
+      <c r="O10" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="P10" s="110" t="s">
+      <c r="P10" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="Q10" s="110" t="s">
+      <c r="Q10" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="R10" s="110" t="s">
+      <c r="R10" s="105" t="s">
         <v>25</v>
       </c>
     </row>
@@ -12695,17 +12659,17 @@
       <c r="G11" s="17"/>
       <c r="H11" s="100"/>
       <c r="I11" s="35"/>
-      <c r="J11" s="110" t="s">
+      <c r="J11" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="110"/>
-      <c r="L11" s="110"/>
-      <c r="M11" s="110"/>
-      <c r="N11" s="110"/>
-      <c r="O11" s="110"/>
-      <c r="P11" s="110"/>
-      <c r="Q11" s="110"/>
-      <c r="R11" s="110"/>
+      <c r="K11" s="105"/>
+      <c r="L11" s="105"/>
+      <c r="M11" s="105"/>
+      <c r="N11" s="105"/>
+      <c r="O11" s="105"/>
+      <c r="P11" s="105"/>
+      <c r="Q11" s="105"/>
+      <c r="R11" s="105"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B12" s="33" t="str">
@@ -12734,31 +12698,31 @@
       </c>
       <c r="H12" s="16"/>
       <c r="I12" s="35"/>
-      <c r="J12" s="111" t="s">
+      <c r="J12" s="106" t="s">
         <v>87</v>
       </c>
-      <c r="K12" s="112"/>
-      <c r="L12" s="112" t="str">
+      <c r="K12" s="107"/>
+      <c r="L12" s="107" t="str">
         <f>$B$2&amp;$H$2&amp;'EB1'!F2&amp;"00"</f>
         <v>REFEOIL00</v>
       </c>
-      <c r="M12" s="115" t="str">
+      <c r="M12" s="110" t="str">
         <f>$D$2&amp;" "&amp;$H$1&amp;RIGHT(L12,2)</f>
         <v>Refinery Existing00</v>
       </c>
-      <c r="N12" s="112" t="str">
+      <c r="N12" s="107" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="O12" s="112" t="str">
+      <c r="O12" s="107" t="str">
         <f>$F$2</f>
         <v>Pja</v>
       </c>
-      <c r="P12" s="111"/>
-      <c r="Q12" s="111" t="s">
+      <c r="P12" s="106"/>
+      <c r="Q12" s="106" t="s">
         <v>110</v>
       </c>
-      <c r="R12" s="112"/>
+      <c r="R12" s="107"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D13" s="33" t="str">
@@ -12963,10 +12927,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="B4:S12"/>
+  <dimension ref="B7:S12"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12978,63 +12942,6 @@
     <col min="16" max="16" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B4" s="102" t="s">
-        <v>142</v>
-      </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-    </row>
-    <row r="5" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="105" t="s">
-        <v>143</v>
-      </c>
-      <c r="D5" s="105" t="s">
-        <v>144</v>
-      </c>
-      <c r="E5" s="105" t="s">
-        <v>145</v>
-      </c>
-      <c r="F5" s="105" t="s">
-        <v>146</v>
-      </c>
-      <c r="G5" s="105" t="s">
-        <v>147</v>
-      </c>
-      <c r="H5" s="105" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B6" s="103" t="s">
-        <v>149</v>
-      </c>
-      <c r="C6" s="104">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1</v>
-      </c>
-      <c r="E6" s="5">
-        <v>1</v>
-      </c>
-      <c r="F6" s="5">
-        <v>1</v>
-      </c>
-      <c r="G6" s="5">
-        <v>1</v>
-      </c>
-      <c r="H6" s="5">
-        <v>1</v>
-      </c>
-    </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.2">
       <c r="K7" s="10"/>
       <c r="L7" s="5"/>
@@ -13047,96 +12954,95 @@
       <c r="S7" s="10"/>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B9" s="106" t="s">
+      <c r="B9" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="106"/>
-      <c r="D9" s="107"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="107"/>
-      <c r="G9" s="107"/>
-      <c r="H9" s="107"/>
-      <c r="I9" s="107"/>
-      <c r="J9" s="107"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="102"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B10" s="108" t="s">
+      <c r="B10" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="109" t="s">
+      <c r="C10" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="108" t="s">
+      <c r="D10" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="108" t="s">
+      <c r="E10" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="108" t="s">
+      <c r="F10" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="108" t="s">
+      <c r="G10" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="108" t="s">
+      <c r="H10" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="108" t="s">
+      <c r="I10" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="108" t="s">
+      <c r="J10" s="103" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="2:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="110" t="s">
+      <c r="B11" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="110" t="s">
+      <c r="C11" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="110" t="s">
+      <c r="D11" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="110" t="s">
+      <c r="E11" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="110" t="s">
+      <c r="F11" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="110" t="s">
+      <c r="G11" s="105" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="110" t="s">
+      <c r="H11" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="I11" s="110" t="s">
+      <c r="I11" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="110" t="s">
+      <c r="J11" s="105" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B12" s="111" t="s">
-        <v>150</v>
-      </c>
-      <c r="C12" s="112"/>
-      <c r="D12" s="111" t="str">
-        <f>B6</f>
-        <v>TOTCO2</v>
-      </c>
-      <c r="E12" s="111" t="s">
-        <v>151</v>
-      </c>
-      <c r="F12" s="111" t="str">
+      <c r="B12" s="106" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" s="107"/>
+      <c r="D12" s="106" t="s">
+        <v>145</v>
+      </c>
+      <c r="E12" s="106" t="s">
+        <v>143</v>
+      </c>
+      <c r="F12" s="106" t="str">
         <f>'EB1'!AA2</f>
         <v>kt</v>
       </c>
-      <c r="G12" s="111"/>
-      <c r="H12" s="111"/>
-      <c r="I12" s="111"/>
-      <c r="J12" s="111"/>
+      <c r="G12" s="106"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="106"/>
+      <c r="J12" s="106"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13170,22 +13076,22 @@
       </c>
     </row>
     <row r="5" spans="2:18" ht="18" x14ac:dyDescent="0.25">
-      <c r="D5" s="116" t="s">
+      <c r="D5" s="111" t="s">
         <v>123</v>
       </c>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="117"/>
-      <c r="L5" s="117"/>
-      <c r="M5" s="117"/>
-      <c r="N5" s="117"/>
-      <c r="O5" s="117"/>
-      <c r="P5" s="117"/>
-      <c r="Q5" s="118"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="112"/>
+      <c r="L5" s="112"/>
+      <c r="M5" s="112"/>
+      <c r="N5" s="112"/>
+      <c r="O5" s="112"/>
+      <c r="P5" s="112"/>
+      <c r="Q5" s="113"/>
       <c r="R5" s="72"/>
     </row>
     <row r="6" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13294,115 +13200,115 @@
         <f>'EB1'!Y2</f>
         <v>M€2005</v>
       </c>
-      <c r="I2" s="106" t="s">
+      <c r="I2" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="106"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="107"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="107"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="102"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="I3" s="108" t="s">
+      <c r="I3" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="109" t="s">
+      <c r="J3" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="108" t="s">
+      <c r="K3" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="108" t="s">
+      <c r="L3" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="108" t="s">
+      <c r="M3" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="108" t="s">
+      <c r="N3" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="108" t="s">
+      <c r="O3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="108" t="s">
+      <c r="P3" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="108" t="s">
+      <c r="Q3" s="103" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:18" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
-      <c r="I4" s="110" t="s">
+      <c r="I4" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="110" t="s">
+      <c r="J4" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="110" t="s">
+      <c r="K4" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="110" t="s">
+      <c r="L4" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="110" t="s">
+      <c r="M4" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="110" t="s">
+      <c r="N4" s="105" t="s">
         <v>40</v>
       </c>
-      <c r="O4" s="110" t="s">
+      <c r="O4" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="P4" s="110" t="s">
+      <c r="P4" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="110" t="s">
+      <c r="Q4" s="105" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="I5" s="111" t="s">
+      <c r="I5" s="106" t="s">
         <v>65</v>
       </c>
-      <c r="J5" s="112"/>
-      <c r="K5" s="111" t="str">
+      <c r="J5" s="107"/>
+      <c r="K5" s="106" t="str">
         <f>C2</f>
         <v>COA</v>
       </c>
-      <c r="L5" s="111" t="str">
+      <c r="L5" s="106" t="str">
         <f>D2</f>
         <v>Solid Fuels</v>
       </c>
-      <c r="M5" s="111" t="str">
+      <c r="M5" s="106" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="N5" s="111"/>
-      <c r="O5" s="111"/>
-      <c r="P5" s="111"/>
-      <c r="Q5" s="111"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="106"/>
+      <c r="Q5" s="106"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D7" s="4" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="F7" s="4"/>
-      <c r="I7" s="106" t="s">
+      <c r="I7" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="106"/>
-      <c r="K7" s="113"/>
-      <c r="L7" s="113"/>
-      <c r="M7" s="113"/>
-      <c r="N7" s="113"/>
-      <c r="O7" s="113"/>
-      <c r="P7" s="113"/>
-      <c r="Q7" s="113"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="108"/>
+      <c r="N7" s="108"/>
+      <c r="O7" s="108"/>
+      <c r="P7" s="108"/>
+      <c r="Q7" s="108"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
@@ -13424,31 +13330,31 @@
         <v>72</v>
       </c>
       <c r="H8" s="5"/>
-      <c r="I8" s="108" t="s">
+      <c r="I8" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="109" t="s">
+      <c r="J8" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="108" t="s">
+      <c r="K8" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="L8" s="108" t="s">
+      <c r="L8" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="M8" s="108" t="s">
+      <c r="M8" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="N8" s="108" t="s">
+      <c r="N8" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="O8" s="108" t="s">
+      <c r="O8" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="P8" s="108" t="s">
+      <c r="P8" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="108" t="s">
+      <c r="Q8" s="103" t="s">
         <v>20</v>
       </c>
     </row>
@@ -13471,31 +13377,31 @@
       <c r="G9" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="I9" s="110" t="s">
+      <c r="I9" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="110" t="s">
+      <c r="J9" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="110" t="s">
+      <c r="K9" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="110" t="s">
+      <c r="L9" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="110" t="s">
+      <c r="M9" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="110" t="s">
+      <c r="N9" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="O9" s="110" t="s">
+      <c r="O9" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="P9" s="110" t="s">
+      <c r="P9" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="Q9" s="110" t="s">
+      <c r="Q9" s="105" t="s">
         <v>25</v>
       </c>
     </row>
@@ -13517,17 +13423,17 @@
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="I10" s="110" t="s">
+      <c r="I10" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="J10" s="114"/>
-      <c r="K10" s="114"/>
-      <c r="L10" s="114"/>
-      <c r="M10" s="114"/>
-      <c r="N10" s="114"/>
-      <c r="O10" s="114"/>
-      <c r="P10" s="114"/>
-      <c r="Q10" s="114"/>
+      <c r="J10" s="109"/>
+      <c r="K10" s="109"/>
+      <c r="L10" s="109"/>
+      <c r="M10" s="109"/>
+      <c r="N10" s="109"/>
+      <c r="O10" s="109"/>
+      <c r="P10" s="109"/>
+      <c r="Q10" s="109"/>
     </row>
     <row r="11" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="10" t="str">
@@ -13549,30 +13455,30 @@
         <f>'EB1'!$D$5*'EB1'!D21</f>
         <v>3947.949525</v>
       </c>
-      <c r="I11" s="111" t="str">
+      <c r="I11" s="106" t="str">
         <f>'EB1'!$B$5</f>
         <v>MIN</v>
       </c>
-      <c r="J11" s="112"/>
-      <c r="K11" s="112" t="str">
+      <c r="J11" s="107"/>
+      <c r="K11" s="107" t="str">
         <f>$I$11&amp;$C$2&amp;1</f>
         <v>MINCOA1</v>
       </c>
-      <c r="L11" s="115" t="str">
+      <c r="L11" s="110" t="str">
         <f>"Domestic Supply of "&amp;$D$2&amp; " Step "&amp;RIGHT(K11,1)</f>
         <v>Domestic Supply of Solid Fuels Step 1</v>
       </c>
-      <c r="M11" s="112" t="str">
+      <c r="M11" s="107" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="N11" s="112" t="str">
+      <c r="N11" s="107" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="O11" s="112"/>
-      <c r="P11" s="112"/>
-      <c r="Q11" s="112"/>
+      <c r="O11" s="107"/>
+      <c r="P11" s="107"/>
+      <c r="Q11" s="107"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B12" s="10" t="str">
@@ -13594,27 +13500,27 @@
         <f>'EB1'!$D$5*'EB1'!D22</f>
         <v>1315.9831750000001</v>
       </c>
-      <c r="I12" s="112"/>
-      <c r="J12" s="112"/>
-      <c r="K12" s="112" t="str">
+      <c r="I12" s="107"/>
+      <c r="J12" s="107"/>
+      <c r="K12" s="107" t="str">
         <f>$I$11&amp;$C$2&amp;2</f>
         <v>MINCOA2</v>
       </c>
-      <c r="L12" s="115" t="str">
+      <c r="L12" s="110" t="str">
         <f>"Domestic Supply of "&amp;$D$2&amp; " Step "&amp;RIGHT(K12,1)</f>
         <v>Domestic Supply of Solid Fuels Step 2</v>
       </c>
-      <c r="M12" s="112" t="str">
+      <c r="M12" s="107" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="N12" s="112" t="str">
+      <c r="N12" s="107" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="O12" s="112"/>
-      <c r="P12" s="112"/>
-      <c r="Q12" s="112"/>
+      <c r="O12" s="107"/>
+      <c r="P12" s="107"/>
+      <c r="Q12" s="107"/>
       <c r="R12" s="5"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
@@ -13636,27 +13542,27 @@
       <c r="G13" s="58">
         <v>5000</v>
       </c>
-      <c r="I13" s="112"/>
-      <c r="J13" s="112"/>
-      <c r="K13" s="112" t="str">
+      <c r="I13" s="107"/>
+      <c r="J13" s="107"/>
+      <c r="K13" s="107" t="str">
         <f>$I$11&amp;$C$2&amp;3</f>
         <v>MINCOA3</v>
       </c>
-      <c r="L13" s="115" t="str">
+      <c r="L13" s="110" t="str">
         <f>"Domestic Supply of "&amp;$D$2&amp; " Step "&amp;RIGHT(K13,1)</f>
         <v>Domestic Supply of Solid Fuels Step 3</v>
       </c>
-      <c r="M13" s="112" t="str">
+      <c r="M13" s="107" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="N13" s="112" t="str">
+      <c r="N13" s="107" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="O13" s="112"/>
-      <c r="P13" s="112"/>
-      <c r="Q13" s="112"/>
+      <c r="O13" s="107"/>
+      <c r="P13" s="107"/>
+      <c r="Q13" s="107"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B14" s="10" t="str">
@@ -13673,30 +13579,30 @@
         <v>2.75</v>
       </c>
       <c r="G14" s="16"/>
-      <c r="I14" s="112" t="str">
+      <c r="I14" s="107" t="str">
         <f>'EB1'!$B$6</f>
         <v>IMP</v>
       </c>
-      <c r="J14" s="112"/>
-      <c r="K14" s="112" t="str">
+      <c r="J14" s="107"/>
+      <c r="K14" s="107" t="str">
         <f>$I$14&amp;$C$2&amp;1</f>
         <v>IMPCOA1</v>
       </c>
-      <c r="L14" s="115" t="str">
+      <c r="L14" s="110" t="str">
         <f>"Import of "&amp;$D$2&amp; " Step "&amp;RIGHT(K14,1)</f>
         <v>Import of Solid Fuels Step 1</v>
       </c>
-      <c r="M14" s="112" t="str">
+      <c r="M14" s="107" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="N14" s="112" t="str">
+      <c r="N14" s="107" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="O14" s="112"/>
-      <c r="P14" s="112"/>
-      <c r="Q14" s="112"/>
+      <c r="O14" s="107"/>
+      <c r="P14" s="107"/>
+      <c r="Q14" s="107"/>
     </row>
     <row r="15" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="10" t="str">
@@ -13716,30 +13622,30 @@
         <f>-'EB1'!D7</f>
         <v>745.59484999999995</v>
       </c>
-      <c r="I15" s="112" t="str">
+      <c r="I15" s="107" t="str">
         <f>'EB1'!B7</f>
         <v>EXP</v>
       </c>
-      <c r="J15" s="112"/>
-      <c r="K15" s="112" t="str">
+      <c r="J15" s="107"/>
+      <c r="K15" s="107" t="str">
         <f>$I$15&amp;$C$2&amp;1</f>
         <v>EXPCOA1</v>
       </c>
-      <c r="L15" s="115" t="str">
+      <c r="L15" s="110" t="str">
         <f>"Export of "&amp;$D$2&amp; " Step "&amp;RIGHT(K15,1)</f>
         <v>Export of Solid Fuels Step 1</v>
       </c>
-      <c r="M15" s="112" t="str">
+      <c r="M15" s="107" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="N15" s="112" t="str">
+      <c r="N15" s="107" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="O15" s="112"/>
-      <c r="P15" s="112"/>
-      <c r="Q15" s="112"/>
+      <c r="O15" s="107"/>
+      <c r="P15" s="107"/>
+      <c r="Q15" s="107"/>
       <c r="R15"/>
     </row>
     <row r="16" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -14025,115 +13931,115 @@
         <f>'EB1'!Y2</f>
         <v>M€2005</v>
       </c>
-      <c r="I2" s="106" t="s">
+      <c r="I2" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="106"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="107"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="107"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="102"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="I3" s="108" t="s">
+      <c r="I3" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="109" t="s">
+      <c r="J3" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="108" t="s">
+      <c r="K3" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="108" t="s">
+      <c r="L3" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="108" t="s">
+      <c r="M3" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="108" t="s">
+      <c r="N3" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="108" t="s">
+      <c r="O3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="108" t="s">
+      <c r="P3" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="108" t="s">
+      <c r="Q3" s="103" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:18" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
-      <c r="I4" s="110" t="s">
+      <c r="I4" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="110" t="s">
+      <c r="J4" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="110" t="s">
+      <c r="K4" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="110" t="s">
+      <c r="L4" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="110" t="s">
+      <c r="M4" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="110" t="s">
+      <c r="N4" s="105" t="s">
         <v>40</v>
       </c>
-      <c r="O4" s="110" t="s">
+      <c r="O4" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="P4" s="110" t="s">
+      <c r="P4" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="110" t="s">
+      <c r="Q4" s="105" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="I5" s="111" t="s">
+      <c r="I5" s="106" t="s">
         <v>65</v>
       </c>
-      <c r="J5" s="112"/>
-      <c r="K5" s="111" t="str">
+      <c r="J5" s="107"/>
+      <c r="K5" s="106" t="str">
         <f>C2</f>
         <v>GAS</v>
       </c>
-      <c r="L5" s="111" t="str">
+      <c r="L5" s="106" t="str">
         <f>D2</f>
         <v>Natural Gas</v>
       </c>
-      <c r="M5" s="111" t="str">
+      <c r="M5" s="106" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="N5" s="111"/>
-      <c r="O5" s="111"/>
-      <c r="P5" s="111"/>
-      <c r="Q5" s="111"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="106"/>
+      <c r="Q5" s="106"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="4"/>
-      <c r="I7" s="106" t="s">
+      <c r="I7" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="106"/>
-      <c r="K7" s="113"/>
-      <c r="L7" s="113"/>
-      <c r="M7" s="113"/>
-      <c r="N7" s="113"/>
-      <c r="O7" s="113"/>
-      <c r="P7" s="113"/>
-      <c r="Q7" s="113"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="108"/>
+      <c r="N7" s="108"/>
+      <c r="O7" s="108"/>
+      <c r="P7" s="108"/>
+      <c r="Q7" s="108"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
@@ -14154,31 +14060,31 @@
       <c r="G8" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="I8" s="108" t="s">
+      <c r="I8" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="109" t="s">
+      <c r="J8" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="108" t="s">
+      <c r="K8" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="L8" s="108" t="s">
+      <c r="L8" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="M8" s="108" t="s">
+      <c r="M8" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="N8" s="108" t="s">
+      <c r="N8" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="O8" s="108" t="s">
+      <c r="O8" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="P8" s="108" t="s">
+      <c r="P8" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="108" t="s">
+      <c r="Q8" s="103" t="s">
         <v>20</v>
       </c>
     </row>
@@ -14201,31 +14107,31 @@
       <c r="G9" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="I9" s="110" t="s">
+      <c r="I9" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="110" t="s">
+      <c r="J9" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="110" t="s">
+      <c r="K9" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="110" t="s">
+      <c r="L9" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="110" t="s">
+      <c r="M9" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="110" t="s">
+      <c r="N9" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="O9" s="110" t="s">
+      <c r="O9" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="P9" s="110" t="s">
+      <c r="P9" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="Q9" s="110" t="s">
+      <c r="Q9" s="105" t="s">
         <v>25</v>
       </c>
     </row>
@@ -14247,17 +14153,17 @@
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="I10" s="110" t="s">
+      <c r="I10" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="J10" s="114"/>
-      <c r="K10" s="114"/>
-      <c r="L10" s="114"/>
-      <c r="M10" s="114"/>
-      <c r="N10" s="114"/>
-      <c r="O10" s="114"/>
-      <c r="P10" s="114"/>
-      <c r="Q10" s="114"/>
+      <c r="J10" s="109"/>
+      <c r="K10" s="109"/>
+      <c r="L10" s="109"/>
+      <c r="M10" s="109"/>
+      <c r="N10" s="109"/>
+      <c r="O10" s="109"/>
+      <c r="P10" s="109"/>
+      <c r="Q10" s="109"/>
     </row>
     <row r="11" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="10" t="str">
@@ -14279,30 +14185,30 @@
         <f>'EB1'!$E$5*'EB1'!E21</f>
         <v>1579.8994000000002</v>
       </c>
-      <c r="I11" s="111" t="str">
+      <c r="I11" s="106" t="str">
         <f>'EB1'!$B$5</f>
         <v>MIN</v>
       </c>
-      <c r="J11" s="112"/>
-      <c r="K11" s="112" t="str">
+      <c r="J11" s="107"/>
+      <c r="K11" s="107" t="str">
         <f>$I$11&amp;$C$2&amp;1</f>
         <v>MINGAS1</v>
       </c>
-      <c r="L11" s="115" t="str">
+      <c r="L11" s="110" t="str">
         <f>"Domestic Supply of "&amp;$D$2&amp; " Step "&amp;RIGHT(K11,1)</f>
         <v>Domestic Supply of Natural Gas Step 1</v>
       </c>
-      <c r="M11" s="112" t="str">
+      <c r="M11" s="107" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="N11" s="112" t="str">
+      <c r="N11" s="107" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="O11" s="112"/>
-      <c r="P11" s="112"/>
-      <c r="Q11" s="112"/>
+      <c r="O11" s="107"/>
+      <c r="P11" s="107"/>
+      <c r="Q11" s="107"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B12" s="10" t="str">
@@ -14325,27 +14231,27 @@
         <v>1579.8994000000002</v>
       </c>
       <c r="H12" s="5"/>
-      <c r="I12" s="112"/>
-      <c r="J12" s="112"/>
-      <c r="K12" s="112" t="str">
+      <c r="I12" s="107"/>
+      <c r="J12" s="107"/>
+      <c r="K12" s="107" t="str">
         <f>$I$11&amp;$C$2&amp;2</f>
         <v>MINGAS2</v>
       </c>
-      <c r="L12" s="115" t="str">
+      <c r="L12" s="110" t="str">
         <f>"Domestic Supply of "&amp;$D$2&amp; " Step "&amp;RIGHT(K12,1)</f>
         <v>Domestic Supply of Natural Gas Step 2</v>
       </c>
-      <c r="M12" s="112" t="str">
+      <c r="M12" s="107" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="N12" s="112" t="str">
+      <c r="N12" s="107" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="O12" s="112"/>
-      <c r="P12" s="112"/>
-      <c r="Q12" s="112"/>
+      <c r="O12" s="107"/>
+      <c r="P12" s="107"/>
+      <c r="Q12" s="107"/>
       <c r="R12" s="5"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
@@ -14367,27 +14273,27 @@
       <c r="G13" s="53">
         <v>0</v>
       </c>
-      <c r="I13" s="112"/>
-      <c r="J13" s="112"/>
-      <c r="K13" s="112" t="str">
+      <c r="I13" s="107"/>
+      <c r="J13" s="107"/>
+      <c r="K13" s="107" t="str">
         <f>$I$11&amp;$C$2&amp;3</f>
         <v>MINGAS3</v>
       </c>
-      <c r="L13" s="115" t="str">
+      <c r="L13" s="110" t="str">
         <f>"Domestic Supply of "&amp;$D$2&amp; " Step "&amp;RIGHT(K13,1)</f>
         <v>Domestic Supply of Natural Gas Step 3</v>
       </c>
-      <c r="M13" s="112" t="str">
+      <c r="M13" s="107" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="N13" s="112" t="str">
+      <c r="N13" s="107" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="O13" s="112"/>
-      <c r="P13" s="112"/>
-      <c r="Q13" s="112"/>
+      <c r="O13" s="107"/>
+      <c r="P13" s="107"/>
+      <c r="Q13" s="107"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B14" s="10" t="str">
@@ -14407,30 +14313,30 @@
         <f>'EB1'!E6</f>
         <v>5316.6916000000001</v>
       </c>
-      <c r="I14" s="112" t="str">
+      <c r="I14" s="107" t="str">
         <f>'EB1'!$B$6</f>
         <v>IMP</v>
       </c>
-      <c r="J14" s="112"/>
-      <c r="K14" s="112" t="str">
+      <c r="J14" s="107"/>
+      <c r="K14" s="107" t="str">
         <f>$I$14&amp;$C$2&amp;1</f>
         <v>IMPGAS1</v>
       </c>
-      <c r="L14" s="115" t="str">
+      <c r="L14" s="110" t="str">
         <f>"Import of "&amp;$D$2&amp; " Step "&amp;RIGHT(K14,1)</f>
         <v>Import of Natural Gas Step 1</v>
       </c>
-      <c r="M14" s="112" t="str">
+      <c r="M14" s="107" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="N14" s="112" t="str">
+      <c r="N14" s="107" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="O14" s="112"/>
-      <c r="P14" s="112"/>
-      <c r="Q14" s="112"/>
+      <c r="O14" s="107"/>
+      <c r="P14" s="107"/>
+      <c r="Q14" s="107"/>
     </row>
     <row r="15" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="10" t="str">
@@ -14450,30 +14356,30 @@
         <v>1006.5324000000001</v>
       </c>
       <c r="H15"/>
-      <c r="I15" s="112" t="str">
+      <c r="I15" s="107" t="str">
         <f>'EB1'!B7</f>
         <v>EXP</v>
       </c>
-      <c r="J15" s="112"/>
-      <c r="K15" s="112" t="str">
+      <c r="J15" s="107"/>
+      <c r="K15" s="107" t="str">
         <f>$I$15&amp;$C$2&amp;1</f>
         <v>EXPGAS1</v>
       </c>
-      <c r="L15" s="115" t="str">
+      <c r="L15" s="110" t="str">
         <f>"Export of "&amp;$D$2&amp; " Step "&amp;RIGHT(K15,1)</f>
         <v>Export of Natural Gas Step 1</v>
       </c>
-      <c r="M15" s="112" t="str">
+      <c r="M15" s="107" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="N15" s="112" t="str">
+      <c r="N15" s="107" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="O15" s="112"/>
-      <c r="P15" s="112"/>
-      <c r="Q15" s="112"/>
+      <c r="O15" s="107"/>
+      <c r="P15" s="107"/>
+      <c r="Q15" s="107"/>
       <c r="R15"/>
     </row>
     <row r="16" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -14760,100 +14666,100 @@
         <f>'EB1'!Y2</f>
         <v>M€2005</v>
       </c>
-      <c r="I2" s="106" t="s">
+      <c r="I2" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="106"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="107"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="107"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="102"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="I3" s="108" t="s">
+      <c r="I3" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="109" t="s">
+      <c r="J3" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="108" t="s">
+      <c r="K3" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="108" t="s">
+      <c r="L3" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="108" t="s">
+      <c r="M3" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="108" t="s">
+      <c r="N3" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="108" t="s">
+      <c r="O3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="108" t="s">
+      <c r="P3" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="108" t="s">
+      <c r="Q3" s="103" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:23" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
-      <c r="I4" s="110" t="s">
+      <c r="I4" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="110" t="s">
+      <c r="J4" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="110" t="s">
+      <c r="K4" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="110" t="s">
+      <c r="L4" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="110" t="s">
+      <c r="M4" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="110" t="s">
+      <c r="N4" s="105" t="s">
         <v>40</v>
       </c>
-      <c r="O4" s="110" t="s">
+      <c r="O4" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="P4" s="110" t="s">
+      <c r="P4" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="110" t="s">
+      <c r="Q4" s="105" t="s">
         <v>29</v>
       </c>
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="I5" s="111" t="s">
+      <c r="I5" s="106" t="s">
         <v>65</v>
       </c>
-      <c r="J5" s="112"/>
-      <c r="K5" s="111" t="str">
+      <c r="J5" s="107"/>
+      <c r="K5" s="106" t="str">
         <f>C2</f>
         <v>OIL</v>
       </c>
-      <c r="L5" s="111" t="str">
+      <c r="L5" s="106" t="str">
         <f>D2</f>
         <v>Crude Oil</v>
       </c>
-      <c r="M5" s="111" t="str">
+      <c r="M5" s="106" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="N5" s="111"/>
-      <c r="O5" s="111"/>
-      <c r="P5" s="111"/>
-      <c r="Q5" s="111"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="106"/>
+      <c r="Q5" s="106"/>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
       <c r="U5" s="5"/>
@@ -14872,17 +14778,17 @@
         <v>13</v>
       </c>
       <c r="F7" s="4"/>
-      <c r="I7" s="106" t="s">
+      <c r="I7" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="106"/>
-      <c r="K7" s="113"/>
-      <c r="L7" s="113"/>
-      <c r="M7" s="113"/>
-      <c r="N7" s="113"/>
-      <c r="O7" s="113"/>
-      <c r="P7" s="113"/>
-      <c r="Q7" s="113"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="108"/>
+      <c r="N7" s="108"/>
+      <c r="O7" s="108"/>
+      <c r="P7" s="108"/>
+      <c r="Q7" s="108"/>
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
     </row>
@@ -14905,31 +14811,31 @@
       <c r="G8" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="I8" s="108" t="s">
+      <c r="I8" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="109" t="s">
+      <c r="J8" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="108" t="s">
+      <c r="K8" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="L8" s="108" t="s">
+      <c r="L8" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="M8" s="108" t="s">
+      <c r="M8" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="N8" s="108" t="s">
+      <c r="N8" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="O8" s="108" t="s">
+      <c r="O8" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="P8" s="108" t="s">
+      <c r="P8" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="108" t="s">
+      <c r="Q8" s="103" t="s">
         <v>20</v>
       </c>
     </row>
@@ -14953,31 +14859,31 @@
         <v>78</v>
       </c>
       <c r="H9" s="5"/>
-      <c r="I9" s="110" t="s">
+      <c r="I9" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="110" t="s">
+      <c r="J9" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="110" t="s">
+      <c r="K9" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="110" t="s">
+      <c r="L9" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="110" t="s">
+      <c r="M9" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="110" t="s">
+      <c r="N9" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="O9" s="110" t="s">
+      <c r="O9" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="P9" s="110" t="s">
+      <c r="P9" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="Q9" s="110" t="s">
+      <c r="Q9" s="105" t="s">
         <v>25</v>
       </c>
     </row>
@@ -14999,17 +14905,17 @@
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="I10" s="110" t="s">
+      <c r="I10" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="J10" s="114"/>
-      <c r="K10" s="114"/>
-      <c r="L10" s="114"/>
-      <c r="M10" s="114"/>
-      <c r="N10" s="114"/>
-      <c r="O10" s="114"/>
-      <c r="P10" s="114"/>
-      <c r="Q10" s="114"/>
+      <c r="J10" s="109"/>
+      <c r="K10" s="109"/>
+      <c r="L10" s="109"/>
+      <c r="M10" s="109"/>
+      <c r="N10" s="109"/>
+      <c r="O10" s="109"/>
+      <c r="P10" s="109"/>
+      <c r="Q10" s="109"/>
       <c r="R10"/>
       <c r="V10"/>
       <c r="W10"/>
@@ -15034,30 +14940,30 @@
         <f>'EB1'!$F$5*'EB1'!F21</f>
         <v>2149.0016000000001</v>
       </c>
-      <c r="I11" s="111" t="str">
+      <c r="I11" s="106" t="str">
         <f>'EB1'!$B$5</f>
         <v>MIN</v>
       </c>
-      <c r="J11" s="112"/>
-      <c r="K11" s="112" t="str">
+      <c r="J11" s="107"/>
+      <c r="K11" s="107" t="str">
         <f>$I$11&amp;$C$2&amp;1</f>
         <v>MINOIL1</v>
       </c>
-      <c r="L11" s="115" t="str">
+      <c r="L11" s="110" t="str">
         <f>"Domestic Supply of "&amp;$D$2&amp; " Step "&amp;RIGHT(K11,1)</f>
         <v>Domestic Supply of Crude Oil Step 1</v>
       </c>
-      <c r="M11" s="112" t="str">
+      <c r="M11" s="107" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="N11" s="112" t="str">
+      <c r="N11" s="107" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="O11" s="112"/>
-      <c r="P11" s="112"/>
-      <c r="Q11" s="112"/>
+      <c r="O11" s="107"/>
+      <c r="P11" s="107"/>
+      <c r="Q11" s="107"/>
     </row>
     <row r="12" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="10" t="str">
@@ -15079,27 +14985,27 @@
         <f>'EB1'!$F$5*'EB1'!F22</f>
         <v>537.25040000000001</v>
       </c>
-      <c r="I12" s="112"/>
-      <c r="J12" s="112"/>
-      <c r="K12" s="112" t="str">
+      <c r="I12" s="107"/>
+      <c r="J12" s="107"/>
+      <c r="K12" s="107" t="str">
         <f>$I$11&amp;$C$2&amp;2</f>
         <v>MINOIL2</v>
       </c>
-      <c r="L12" s="115" t="str">
+      <c r="L12" s="110" t="str">
         <f>"Domestic Supply of "&amp;$D$2&amp; " Step "&amp;RIGHT(K12,1)</f>
         <v>Domestic Supply of Crude Oil Step 2</v>
       </c>
-      <c r="M12" s="112" t="str">
+      <c r="M12" s="107" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="N12" s="112" t="str">
+      <c r="N12" s="107" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="O12" s="112"/>
-      <c r="P12" s="112"/>
-      <c r="Q12" s="112"/>
+      <c r="O12" s="107"/>
+      <c r="P12" s="107"/>
+      <c r="Q12" s="107"/>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B13" s="10" t="str">
@@ -15120,27 +15026,27 @@
       <c r="G13" s="48">
         <v>5000</v>
       </c>
-      <c r="I13" s="112"/>
-      <c r="J13" s="112"/>
-      <c r="K13" s="112" t="str">
+      <c r="I13" s="107"/>
+      <c r="J13" s="107"/>
+      <c r="K13" s="107" t="str">
         <f>$I$11&amp;$C$2&amp;3</f>
         <v>MINOIL3</v>
       </c>
-      <c r="L13" s="115" t="str">
+      <c r="L13" s="110" t="str">
         <f>"Domestic Supply of "&amp;$D$2&amp; " Step "&amp;RIGHT(K13,1)</f>
         <v>Domestic Supply of Crude Oil Step 3</v>
       </c>
-      <c r="M13" s="112" t="str">
+      <c r="M13" s="107" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="N13" s="112" t="str">
+      <c r="N13" s="107" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="O13" s="112"/>
-      <c r="P13" s="112"/>
-      <c r="Q13" s="112"/>
+      <c r="O13" s="107"/>
+      <c r="P13" s="107"/>
+      <c r="Q13" s="107"/>
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
@@ -15163,30 +15069,30 @@
         <v>8</v>
       </c>
       <c r="G14" s="15"/>
-      <c r="I14" s="112" t="str">
+      <c r="I14" s="107" t="str">
         <f>'EB1'!$B$6</f>
         <v>IMP</v>
       </c>
-      <c r="J14" s="112"/>
-      <c r="K14" s="112" t="str">
+      <c r="J14" s="107"/>
+      <c r="K14" s="107" t="str">
         <f>$I$14&amp;$C$2&amp;1</f>
         <v>IMPOIL1</v>
       </c>
-      <c r="L14" s="115" t="str">
+      <c r="L14" s="110" t="str">
         <f>"Import of "&amp;$D$2&amp; " Step "&amp;RIGHT(K14,1)</f>
         <v>Import of Crude Oil Step 1</v>
       </c>
-      <c r="M14" s="112" t="str">
+      <c r="M14" s="107" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="N14" s="112" t="str">
+      <c r="N14" s="107" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="O14" s="112"/>
-      <c r="P14" s="112"/>
-      <c r="Q14" s="112"/>
+      <c r="O14" s="107"/>
+      <c r="P14" s="107"/>
+      <c r="Q14" s="107"/>
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
       <c r="U14" s="5"/>
@@ -15212,30 +15118,30 @@
         <f>-'EB1'!F7</f>
         <v>1648.4854999999998</v>
       </c>
-      <c r="I15" s="112" t="str">
+      <c r="I15" s="107" t="str">
         <f>'EB1'!B7</f>
         <v>EXP</v>
       </c>
-      <c r="J15" s="112"/>
-      <c r="K15" s="112" t="str">
+      <c r="J15" s="107"/>
+      <c r="K15" s="107" t="str">
         <f>$I$15&amp;$C$2&amp;1</f>
         <v>EXPOIL1</v>
       </c>
-      <c r="L15" s="115" t="str">
+      <c r="L15" s="110" t="str">
         <f>"Export of "&amp;$D$2&amp; " Step "&amp;RIGHT(K15,1)</f>
         <v>Export of Crude Oil Step 1</v>
       </c>
-      <c r="M15" s="112" t="str">
+      <c r="M15" s="107" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="N15" s="112" t="str">
+      <c r="N15" s="107" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="O15" s="112"/>
-      <c r="P15" s="112"/>
-      <c r="Q15" s="112"/>
+      <c r="O15" s="107"/>
+      <c r="P15" s="107"/>
+      <c r="Q15" s="107"/>
       <c r="V15" s="5"/>
       <c r="W15" s="5"/>
     </row>
@@ -15430,116 +15336,116 @@
         <f>'EB1'!Y2</f>
         <v>M€2005</v>
       </c>
-      <c r="H2" s="106" t="s">
+      <c r="H2" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="106"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="107"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="107"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.2">
       <c r="F3" s="13"/>
-      <c r="H3" s="108" t="s">
+      <c r="H3" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="109" t="s">
+      <c r="I3" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="108" t="s">
+      <c r="J3" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="108" t="s">
+      <c r="K3" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="108" t="s">
+      <c r="L3" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="108" t="s">
+      <c r="M3" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="108" t="s">
+      <c r="N3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="108" t="s">
+      <c r="O3" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="108" t="s">
+      <c r="P3" s="103" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:17" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
-      <c r="H4" s="110" t="s">
+      <c r="H4" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="110" t="s">
+      <c r="I4" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="110" t="s">
+      <c r="J4" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="110" t="s">
+      <c r="K4" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="110" t="s">
+      <c r="L4" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="110" t="s">
+      <c r="M4" s="105" t="s">
         <v>40</v>
       </c>
-      <c r="N4" s="110" t="s">
+      <c r="N4" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="O4" s="110" t="s">
+      <c r="O4" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="110" t="s">
+      <c r="P4" s="105" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="H5" s="111" t="s">
+      <c r="H5" s="106" t="s">
         <v>65</v>
       </c>
-      <c r="I5" s="112"/>
-      <c r="J5" s="111" t="str">
+      <c r="I5" s="107"/>
+      <c r="J5" s="106" t="str">
         <f>C2</f>
         <v>NUC</v>
       </c>
-      <c r="K5" s="111" t="str">
+      <c r="K5" s="106" t="str">
         <f>D2</f>
         <v>Nuclear Energy</v>
       </c>
-      <c r="L5" s="111" t="str">
+      <c r="L5" s="106" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="M5" s="111"/>
-      <c r="N5" s="111"/>
-      <c r="O5" s="111"/>
-      <c r="P5" s="111"/>
+      <c r="M5" s="106"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="106"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="H7" s="106" t="s">
+      <c r="H7" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="106"/>
-      <c r="J7" s="113"/>
-      <c r="K7" s="113"/>
-      <c r="L7" s="113"/>
-      <c r="M7" s="113"/>
-      <c r="N7" s="113"/>
-      <c r="O7" s="113"/>
-      <c r="P7" s="113"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="108"/>
+      <c r="N7" s="108"/>
+      <c r="O7" s="108"/>
+      <c r="P7" s="108"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
@@ -15557,31 +15463,31 @@
       <c r="F8" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="H8" s="108" t="s">
+      <c r="H8" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="109" t="s">
+      <c r="I8" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="108" t="s">
+      <c r="J8" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="K8" s="108" t="s">
+      <c r="K8" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="L8" s="108" t="s">
+      <c r="L8" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="108" t="s">
+      <c r="M8" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="108" t="s">
+      <c r="N8" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="O8" s="108" t="s">
+      <c r="O8" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="P8" s="108" t="s">
+      <c r="P8" s="103" t="s">
         <v>20</v>
       </c>
     </row>
@@ -15601,31 +15507,31 @@
       <c r="F9" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="H9" s="110" t="s">
+      <c r="H9" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="110" t="s">
+      <c r="I9" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="110" t="s">
+      <c r="J9" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="K9" s="110" t="s">
+      <c r="K9" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="110" t="s">
+      <c r="L9" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="110" t="s">
+      <c r="M9" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="N9" s="110" t="s">
+      <c r="N9" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="O9" s="110" t="s">
+      <c r="O9" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="P9" s="110" t="s">
+      <c r="P9" s="105" t="s">
         <v>25</v>
       </c>
     </row>
@@ -15644,17 +15550,17 @@
         <v>PJ</v>
       </c>
       <c r="G10" s="33"/>
-      <c r="H10" s="110" t="s">
+      <c r="H10" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="I10" s="114"/>
-      <c r="J10" s="114"/>
-      <c r="K10" s="114"/>
-      <c r="L10" s="114"/>
-      <c r="M10" s="114"/>
-      <c r="N10" s="114"/>
-      <c r="O10" s="114"/>
-      <c r="P10" s="114"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="109"/>
+      <c r="K10" s="109"/>
+      <c r="L10" s="109"/>
+      <c r="M10" s="109"/>
+      <c r="N10" s="109"/>
+      <c r="O10" s="109"/>
+      <c r="P10" s="109"/>
       <c r="Q10" s="33"/>
     </row>
     <row r="11" spans="2:17" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -15671,30 +15577,30 @@
         <v>0.25</v>
       </c>
       <c r="F11" s="68"/>
-      <c r="H11" s="111" t="str">
+      <c r="H11" s="106" t="str">
         <f>'EB1'!$B$5</f>
         <v>MIN</v>
       </c>
-      <c r="I11" s="112"/>
-      <c r="J11" s="112" t="str">
+      <c r="I11" s="107"/>
+      <c r="J11" s="107" t="str">
         <f>$H$11&amp;$C$2&amp;1</f>
         <v>MINNUC1</v>
       </c>
-      <c r="K11" s="115" t="str">
+      <c r="K11" s="110" t="str">
         <f>"Domestic Supply of "&amp;$D$2&amp; " Step "&amp;RIGHT(J11,1)</f>
         <v>Domestic Supply of Nuclear Energy Step 1</v>
       </c>
-      <c r="L11" s="112" t="str">
+      <c r="L11" s="107" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="M11" s="112" t="str">
+      <c r="M11" s="107" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="N11" s="112"/>
-      <c r="O11" s="112"/>
-      <c r="P11" s="112"/>
+      <c r="N11" s="107"/>
+      <c r="O11" s="107"/>
+      <c r="P11" s="107"/>
     </row>
     <row r="12" spans="2:17" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="10"/>
@@ -16035,17 +15941,17 @@
         <f>'EB1'!Y2</f>
         <v>M€2005</v>
       </c>
-      <c r="H2" s="106" t="s">
+      <c r="H2" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="106"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="107"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="107"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
     </row>
     <row r="3" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C3" s="14" t="str">
@@ -16060,31 +15966,31 @@
         <f>'EB1'!$Z$2</f>
         <v>PJ</v>
       </c>
-      <c r="H3" s="108" t="s">
+      <c r="H3" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="109" t="s">
+      <c r="I3" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="108" t="s">
+      <c r="J3" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="108" t="s">
+      <c r="K3" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="108" t="s">
+      <c r="L3" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="108" t="s">
+      <c r="M3" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="108" t="s">
+      <c r="N3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="108" t="s">
+      <c r="O3" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="108" t="s">
+      <c r="P3" s="103" t="s">
         <v>12</v>
       </c>
     </row>
@@ -16102,31 +16008,31 @@
         <f>'EB1'!$Z$2</f>
         <v>PJ</v>
       </c>
-      <c r="H4" s="110" t="s">
+      <c r="H4" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="110" t="s">
+      <c r="I4" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="110" t="s">
+      <c r="J4" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="110" t="s">
+      <c r="K4" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="110" t="s">
+      <c r="L4" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="110" t="s">
+      <c r="M4" s="105" t="s">
         <v>40</v>
       </c>
-      <c r="N4" s="110" t="s">
+      <c r="N4" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="O4" s="110" t="s">
+      <c r="O4" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="110" t="s">
+      <c r="P4" s="105" t="s">
         <v>29</v>
       </c>
     </row>
@@ -16143,109 +16049,109 @@
         <f>'EB1'!$Z$2</f>
         <v>PJ</v>
       </c>
-      <c r="H5" s="111" t="s">
+      <c r="H5" s="106" t="s">
         <v>65</v>
       </c>
-      <c r="I5" s="112"/>
-      <c r="J5" s="111" t="str">
+      <c r="I5" s="107"/>
+      <c r="J5" s="106" t="str">
         <f t="shared" ref="J5:K8" si="0">C2</f>
         <v>BIO</v>
       </c>
-      <c r="K5" s="111" t="str">
+      <c r="K5" s="106" t="str">
         <f t="shared" si="0"/>
         <v>Biomass</v>
       </c>
-      <c r="L5" s="111" t="str">
+      <c r="L5" s="106" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="M5" s="111"/>
-      <c r="N5" s="111"/>
-      <c r="O5" s="111"/>
-      <c r="P5" s="111"/>
+      <c r="M5" s="106"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="106"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="H6" s="111"/>
-      <c r="I6" s="112"/>
-      <c r="J6" s="111" t="str">
+      <c r="H6" s="106"/>
+      <c r="I6" s="107"/>
+      <c r="J6" s="106" t="str">
         <f t="shared" si="0"/>
         <v>HYD</v>
       </c>
-      <c r="K6" s="111" t="str">
+      <c r="K6" s="106" t="str">
         <f t="shared" si="0"/>
         <v>Hydro power</v>
       </c>
-      <c r="L6" s="111" t="str">
+      <c r="L6" s="106" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="M6" s="111"/>
-      <c r="N6" s="111"/>
-      <c r="O6" s="111"/>
-      <c r="P6" s="111"/>
+      <c r="M6" s="106"/>
+      <c r="N6" s="106"/>
+      <c r="O6" s="106"/>
+      <c r="P6" s="106"/>
     </row>
     <row r="7" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
-      <c r="H7" s="111"/>
-      <c r="I7" s="112"/>
-      <c r="J7" s="111" t="str">
+      <c r="H7" s="106"/>
+      <c r="I7" s="107"/>
+      <c r="J7" s="106" t="str">
         <f t="shared" si="0"/>
         <v>WIN</v>
       </c>
-      <c r="K7" s="111" t="str">
+      <c r="K7" s="106" t="str">
         <f t="shared" si="0"/>
         <v>Wind energy</v>
       </c>
-      <c r="L7" s="111" t="str">
+      <c r="L7" s="106" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="M7" s="111"/>
-      <c r="N7" s="111"/>
-      <c r="O7" s="111"/>
-      <c r="P7" s="111"/>
+      <c r="M7" s="106"/>
+      <c r="N7" s="106"/>
+      <c r="O7" s="106"/>
+      <c r="P7" s="106"/>
     </row>
     <row r="8" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
-      <c r="H8" s="111"/>
-      <c r="I8" s="112"/>
-      <c r="J8" s="111" t="str">
+      <c r="H8" s="106"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="106" t="str">
         <f t="shared" si="0"/>
         <v>SOL</v>
       </c>
-      <c r="K8" s="111" t="str">
+      <c r="K8" s="106" t="str">
         <f t="shared" si="0"/>
         <v>Solar energy</v>
       </c>
-      <c r="L8" s="111" t="str">
+      <c r="L8" s="106" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="M8" s="111"/>
-      <c r="N8" s="111"/>
-      <c r="O8" s="111"/>
-      <c r="P8" s="111"/>
+      <c r="M8" s="106"/>
+      <c r="N8" s="106"/>
+      <c r="O8" s="106"/>
+      <c r="P8" s="106"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="4"/>
-      <c r="H10" s="106" t="s">
+      <c r="H10" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="106"/>
-      <c r="J10" s="113"/>
-      <c r="K10" s="113"/>
-      <c r="L10" s="113"/>
-      <c r="M10" s="113"/>
-      <c r="N10" s="113"/>
-      <c r="O10" s="113"/>
-      <c r="P10" s="113"/>
+      <c r="I10" s="101"/>
+      <c r="J10" s="108"/>
+      <c r="K10" s="108"/>
+      <c r="L10" s="108"/>
+      <c r="M10" s="108"/>
+      <c r="N10" s="108"/>
+      <c r="O10" s="108"/>
+      <c r="P10" s="108"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
@@ -16263,31 +16169,31 @@
       <c r="F11" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="H11" s="108" t="s">
+      <c r="H11" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="109" t="s">
+      <c r="I11" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="J11" s="108" t="s">
+      <c r="J11" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="K11" s="108" t="s">
+      <c r="K11" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="L11" s="108" t="s">
+      <c r="L11" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="M11" s="108" t="s">
+      <c r="M11" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="N11" s="108" t="s">
+      <c r="N11" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="O11" s="108" t="s">
+      <c r="O11" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="108" t="s">
+      <c r="P11" s="103" t="s">
         <v>20</v>
       </c>
     </row>
@@ -16307,31 +16213,31 @@
       <c r="F12" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="H12" s="110" t="s">
+      <c r="H12" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="I12" s="110" t="s">
+      <c r="I12" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="J12" s="110" t="s">
+      <c r="J12" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="110" t="s">
+      <c r="K12" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="L12" s="110" t="s">
+      <c r="L12" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="M12" s="110" t="s">
+      <c r="M12" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="N12" s="110" t="s">
+      <c r="N12" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="O12" s="110" t="s">
+      <c r="O12" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="P12" s="110" t="s">
+      <c r="P12" s="105" t="s">
         <v>25</v>
       </c>
     </row>
@@ -16350,17 +16256,17 @@
         <v>PJ</v>
       </c>
       <c r="G13" s="33"/>
-      <c r="H13" s="110" t="s">
+      <c r="H13" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="I13" s="114"/>
-      <c r="J13" s="114"/>
-      <c r="K13" s="114"/>
-      <c r="L13" s="114"/>
-      <c r="M13" s="114"/>
-      <c r="N13" s="114"/>
-      <c r="O13" s="114"/>
-      <c r="P13" s="114"/>
+      <c r="I13" s="109"/>
+      <c r="J13" s="109"/>
+      <c r="K13" s="109"/>
+      <c r="L13" s="109"/>
+      <c r="M13" s="109"/>
+      <c r="N13" s="109"/>
+      <c r="O13" s="109"/>
+      <c r="P13" s="109"/>
       <c r="Q13" s="33"/>
     </row>
     <row r="14" spans="2:17" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -16377,30 +16283,30 @@
         <v>4.0500000000000007</v>
       </c>
       <c r="F14" s="68"/>
-      <c r="H14" s="111" t="str">
+      <c r="H14" s="106" t="str">
         <f>'EB1'!$B$5</f>
         <v>MIN</v>
       </c>
-      <c r="I14" s="112"/>
-      <c r="J14" s="112" t="str">
+      <c r="I14" s="107"/>
+      <c r="J14" s="107" t="str">
         <f>$H$14&amp;C2&amp;1</f>
         <v>MINBIO1</v>
       </c>
-      <c r="K14" s="115" t="str">
+      <c r="K14" s="110" t="str">
         <f>"Domestic Supply of "&amp;D2&amp; " Step "&amp;RIGHT(J14,1)</f>
         <v>Domestic Supply of Biomass Step 1</v>
       </c>
-      <c r="L14" s="112" t="str">
+      <c r="L14" s="107" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="M14" s="112" t="str">
+      <c r="M14" s="107" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="N14" s="112"/>
-      <c r="O14" s="112"/>
-      <c r="P14" s="112"/>
+      <c r="N14" s="107"/>
+      <c r="O14" s="107"/>
+      <c r="P14" s="107"/>
     </row>
     <row r="15" spans="2:17" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="10" t="str">
@@ -16414,27 +16320,27 @@
       </c>
       <c r="E15" s="67"/>
       <c r="F15" s="68"/>
-      <c r="H15" s="112"/>
-      <c r="I15" s="112"/>
-      <c r="J15" s="112" t="str">
+      <c r="H15" s="107"/>
+      <c r="I15" s="107"/>
+      <c r="J15" s="107" t="str">
         <f>$H$14&amp;C3&amp;1</f>
         <v>MINHYD1</v>
       </c>
-      <c r="K15" s="115" t="str">
+      <c r="K15" s="110" t="str">
         <f>"Domestic Supply of "&amp;D3&amp; " Step "&amp;RIGHT(J15,1)</f>
         <v>Domestic Supply of Hydro power Step 1</v>
       </c>
-      <c r="L15" s="112" t="str">
+      <c r="L15" s="107" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="M15" s="112" t="str">
+      <c r="M15" s="107" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="N15" s="112"/>
-      <c r="O15" s="112"/>
-      <c r="P15" s="112"/>
+      <c r="N15" s="107"/>
+      <c r="O15" s="107"/>
+      <c r="P15" s="107"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B16" s="10" t="str">
@@ -16449,27 +16355,27 @@
       <c r="E16" s="67"/>
       <c r="F16" s="68"/>
       <c r="G16" s="35"/>
-      <c r="H16" s="112"/>
-      <c r="I16" s="112"/>
-      <c r="J16" s="112" t="str">
+      <c r="H16" s="107"/>
+      <c r="I16" s="107"/>
+      <c r="J16" s="107" t="str">
         <f>$H$14&amp;C4&amp;1</f>
         <v>MINWIN1</v>
       </c>
-      <c r="K16" s="115" t="str">
+      <c r="K16" s="110" t="str">
         <f>"Domestic Supply of "&amp;D4&amp; " Step "&amp;RIGHT(J16,1)</f>
         <v>Domestic Supply of Wind energy Step 1</v>
       </c>
-      <c r="L16" s="112" t="str">
+      <c r="L16" s="107" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="M16" s="112" t="str">
+      <c r="M16" s="107" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="N16" s="112"/>
-      <c r="O16" s="112"/>
-      <c r="P16" s="112"/>
+      <c r="N16" s="107"/>
+      <c r="O16" s="107"/>
+      <c r="P16" s="107"/>
       <c r="Q16" s="35"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.2">
@@ -16484,27 +16390,27 @@
       </c>
       <c r="E17" s="31"/>
       <c r="F17" s="5"/>
-      <c r="H17" s="112"/>
-      <c r="I17" s="112"/>
-      <c r="J17" s="112" t="str">
+      <c r="H17" s="107"/>
+      <c r="I17" s="107"/>
+      <c r="J17" s="107" t="str">
         <f>$H$14&amp;C5&amp;1</f>
         <v>MINSOL1</v>
       </c>
-      <c r="K17" s="115" t="str">
+      <c r="K17" s="110" t="str">
         <f>"Domestic Supply of "&amp;D5&amp; " Step "&amp;RIGHT(J17,1)</f>
         <v>Domestic Supply of Solar energy Step 1</v>
       </c>
-      <c r="L17" s="112" t="str">
+      <c r="L17" s="107" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="M17" s="112" t="str">
+      <c r="M17" s="107" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="N17" s="112"/>
-      <c r="O17" s="112"/>
-      <c r="P17" s="112"/>
+      <c r="N17" s="107"/>
+      <c r="O17" s="107"/>
+      <c r="P17" s="107"/>
     </row>
     <row r="18" spans="2:17" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="10"/>
@@ -16771,17 +16677,17 @@
         <f>'EB1'!Y2</f>
         <v>M€2005</v>
       </c>
-      <c r="H2" s="106" t="s">
+      <c r="H2" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="106"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="107"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="107"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
     </row>
     <row r="3" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C3" s="14" t="str">
@@ -16796,31 +16702,31 @@
         <f>'EB1'!$Z$2</f>
         <v>PJ</v>
       </c>
-      <c r="H3" s="108" t="s">
+      <c r="H3" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="109" t="s">
+      <c r="I3" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="108" t="s">
+      <c r="J3" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="108" t="s">
+      <c r="K3" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="108" t="s">
+      <c r="L3" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="108" t="s">
+      <c r="M3" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="108" t="s">
+      <c r="N3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="108" t="s">
+      <c r="O3" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="108" t="s">
+      <c r="P3" s="103" t="s">
         <v>12</v>
       </c>
     </row>
@@ -16837,31 +16743,31 @@
         <f>'EB1'!$Z$2</f>
         <v>PJ</v>
       </c>
-      <c r="H4" s="110" t="s">
+      <c r="H4" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="110" t="s">
+      <c r="I4" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="110" t="s">
+      <c r="J4" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="110" t="s">
+      <c r="K4" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="110" t="s">
+      <c r="L4" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="110" t="s">
+      <c r="M4" s="105" t="s">
         <v>40</v>
       </c>
-      <c r="N4" s="110" t="s">
+      <c r="N4" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="O4" s="110" t="s">
+      <c r="O4" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="110" t="s">
+      <c r="P4" s="105" t="s">
         <v>29</v>
       </c>
       <c r="S4" s="5"/>
@@ -16880,26 +16786,26 @@
         <f>'EB1'!$Z$2</f>
         <v>PJ</v>
       </c>
-      <c r="H5" s="111" t="s">
+      <c r="H5" s="106" t="s">
         <v>65</v>
       </c>
-      <c r="I5" s="112"/>
-      <c r="J5" s="111" t="str">
+      <c r="I5" s="107"/>
+      <c r="J5" s="106" t="str">
         <f t="shared" ref="J5:K11" si="0">C2</f>
         <v>DSL</v>
       </c>
-      <c r="K5" s="111" t="str">
+      <c r="K5" s="106" t="str">
         <f t="shared" si="0"/>
         <v>Diesel oil</v>
       </c>
-      <c r="L5" s="111" t="str">
+      <c r="L5" s="106" t="str">
         <f t="shared" ref="L5:L11" si="1">$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="M5" s="111"/>
-      <c r="N5" s="111"/>
-      <c r="O5" s="111"/>
-      <c r="P5" s="111"/>
+      <c r="M5" s="106"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="106"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
@@ -16919,24 +16825,24 @@
         <f>'EB1'!$Z$2</f>
         <v>PJ</v>
       </c>
-      <c r="H6" s="111"/>
-      <c r="I6" s="112"/>
-      <c r="J6" s="111" t="str">
+      <c r="H6" s="106"/>
+      <c r="I6" s="107"/>
+      <c r="J6" s="106" t="str">
         <f t="shared" si="0"/>
         <v>KER</v>
       </c>
-      <c r="K6" s="111" t="str">
+      <c r="K6" s="106" t="str">
         <f t="shared" si="0"/>
         <v>Kerosenes</v>
       </c>
-      <c r="L6" s="111" t="str">
+      <c r="L6" s="106" t="str">
         <f t="shared" si="1"/>
         <v>PJ</v>
       </c>
-      <c r="M6" s="111"/>
-      <c r="N6" s="111"/>
-      <c r="O6" s="111"/>
-      <c r="P6" s="111"/>
+      <c r="M6" s="106"/>
+      <c r="N6" s="106"/>
+      <c r="O6" s="106"/>
+      <c r="P6" s="106"/>
       <c r="R6" s="5"/>
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
@@ -16956,24 +16862,24 @@
         <f>'EB1'!$Z$2</f>
         <v>PJ</v>
       </c>
-      <c r="H7" s="111"/>
-      <c r="I7" s="112"/>
-      <c r="J7" s="111" t="str">
+      <c r="H7" s="106"/>
+      <c r="I7" s="107"/>
+      <c r="J7" s="106" t="str">
         <f t="shared" si="0"/>
         <v>LPG</v>
       </c>
-      <c r="K7" s="111" t="str">
+      <c r="K7" s="106" t="str">
         <f t="shared" si="0"/>
         <v>LPG</v>
       </c>
-      <c r="L7" s="111" t="str">
+      <c r="L7" s="106" t="str">
         <f t="shared" si="1"/>
         <v>PJ</v>
       </c>
-      <c r="M7" s="111"/>
-      <c r="N7" s="111"/>
-      <c r="O7" s="111"/>
-      <c r="P7" s="111"/>
+      <c r="M7" s="106"/>
+      <c r="N7" s="106"/>
+      <c r="O7" s="106"/>
+      <c r="P7" s="106"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
       <c r="U7" s="5"/>
@@ -16992,46 +16898,46 @@
         <f>'EB1'!$Z$2</f>
         <v>PJ</v>
       </c>
-      <c r="H8" s="111"/>
-      <c r="I8" s="112"/>
-      <c r="J8" s="111" t="str">
+      <c r="H8" s="106"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="106" t="str">
         <f t="shared" si="0"/>
         <v>GSL</v>
       </c>
-      <c r="K8" s="111" t="str">
+      <c r="K8" s="106" t="str">
         <f t="shared" si="0"/>
         <v>Motor spirit</v>
       </c>
-      <c r="L8" s="111" t="str">
+      <c r="L8" s="106" t="str">
         <f t="shared" si="1"/>
         <v>PJ</v>
       </c>
-      <c r="M8" s="111"/>
-      <c r="N8" s="111"/>
-      <c r="O8" s="111"/>
-      <c r="P8" s="111"/>
+      <c r="M8" s="106"/>
+      <c r="N8" s="106"/>
+      <c r="O8" s="106"/>
+      <c r="P8" s="106"/>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="H9" s="111"/>
-      <c r="I9" s="112"/>
-      <c r="J9" s="111" t="str">
+      <c r="H9" s="106"/>
+      <c r="I9" s="107"/>
+      <c r="J9" s="106" t="str">
         <f t="shared" si="0"/>
         <v>NAP</v>
       </c>
-      <c r="K9" s="111" t="str">
+      <c r="K9" s="106" t="str">
         <f t="shared" si="0"/>
         <v>Naphtha</v>
       </c>
-      <c r="L9" s="111" t="str">
+      <c r="L9" s="106" t="str">
         <f t="shared" si="1"/>
         <v>PJ</v>
       </c>
-      <c r="M9" s="111"/>
-      <c r="N9" s="111"/>
-      <c r="O9" s="111"/>
-      <c r="P9" s="111"/>
+      <c r="M9" s="106"/>
+      <c r="N9" s="106"/>
+      <c r="O9" s="106"/>
+      <c r="P9" s="106"/>
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
     </row>
@@ -17041,47 +16947,47 @@
       <c r="D10"/>
       <c r="E10"/>
       <c r="F10"/>
-      <c r="H10" s="111"/>
-      <c r="I10" s="112"/>
-      <c r="J10" s="111" t="str">
+      <c r="H10" s="106"/>
+      <c r="I10" s="107"/>
+      <c r="J10" s="106" t="str">
         <f t="shared" si="0"/>
         <v>HFO</v>
       </c>
-      <c r="K10" s="111" t="str">
+      <c r="K10" s="106" t="str">
         <f t="shared" si="0"/>
         <v>Heavy Fuel Oil</v>
       </c>
-      <c r="L10" s="111" t="str">
+      <c r="L10" s="106" t="str">
         <f t="shared" si="1"/>
         <v>PJ</v>
       </c>
-      <c r="M10" s="111"/>
-      <c r="N10" s="111"/>
-      <c r="O10" s="111"/>
-      <c r="P10" s="111"/>
+      <c r="M10" s="106"/>
+      <c r="N10" s="106"/>
+      <c r="O10" s="106"/>
+      <c r="P10" s="106"/>
       <c r="Q10"/>
       <c r="U10"/>
       <c r="V10"/>
     </row>
     <row r="11" spans="2:22" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H11" s="111"/>
-      <c r="I11" s="112"/>
-      <c r="J11" s="111" t="str">
+      <c r="H11" s="106"/>
+      <c r="I11" s="107"/>
+      <c r="J11" s="106" t="str">
         <f t="shared" si="0"/>
         <v>OPP</v>
       </c>
-      <c r="K11" s="111" t="str">
+      <c r="K11" s="106" t="str">
         <f t="shared" si="0"/>
         <v>Other Petroleum Products</v>
       </c>
-      <c r="L11" s="111" t="str">
+      <c r="L11" s="106" t="str">
         <f t="shared" si="1"/>
         <v>PJ</v>
       </c>
-      <c r="M11" s="111"/>
-      <c r="N11" s="111"/>
-      <c r="O11" s="111"/>
-      <c r="P11" s="111"/>
+      <c r="M11" s="106"/>
+      <c r="N11" s="106"/>
+      <c r="O11" s="106"/>
+      <c r="P11" s="106"/>
       <c r="Q11"/>
     </row>
     <row r="12" spans="2:22" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -17101,17 +17007,17 @@
         <v>13</v>
       </c>
       <c r="E13" s="4"/>
-      <c r="H13" s="106" t="s">
+      <c r="H13" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="106"/>
-      <c r="J13" s="113"/>
-      <c r="K13" s="113"/>
-      <c r="L13" s="113"/>
-      <c r="M13" s="113"/>
-      <c r="N13" s="113"/>
-      <c r="O13" s="113"/>
-      <c r="P13" s="113"/>
+      <c r="I13" s="101"/>
+      <c r="J13" s="108"/>
+      <c r="K13" s="108"/>
+      <c r="L13" s="108"/>
+      <c r="M13" s="108"/>
+      <c r="N13" s="108"/>
+      <c r="O13" s="108"/>
+      <c r="P13" s="108"/>
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
       <c r="V13" s="5"/>
@@ -17132,31 +17038,31 @@
       <c r="F14" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="H14" s="108" t="s">
+      <c r="H14" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="109" t="s">
+      <c r="I14" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="J14" s="108" t="s">
+      <c r="J14" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="K14" s="108" t="s">
+      <c r="K14" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="L14" s="108" t="s">
+      <c r="L14" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="M14" s="108" t="s">
+      <c r="M14" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="N14" s="108" t="s">
+      <c r="N14" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="O14" s="108" t="s">
+      <c r="O14" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="P14" s="108" t="s">
+      <c r="P14" s="103" t="s">
         <v>20</v>
       </c>
       <c r="T14" s="5"/>
@@ -17179,31 +17085,31 @@
       <c r="F15" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="H15" s="110" t="s">
+      <c r="H15" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="110" t="s">
+      <c r="I15" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="J15" s="110" t="s">
+      <c r="J15" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="K15" s="110" t="s">
+      <c r="K15" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="L15" s="110" t="s">
+      <c r="L15" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="M15" s="110" t="s">
+      <c r="M15" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="N15" s="110" t="s">
+      <c r="N15" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="O15" s="110" t="s">
+      <c r="O15" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="P15" s="110" t="s">
+      <c r="P15" s="105" t="s">
         <v>25</v>
       </c>
       <c r="U15" s="5"/>
@@ -17223,17 +17129,17 @@
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="H16" s="110" t="s">
+      <c r="H16" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="I16" s="110"/>
-      <c r="J16" s="110"/>
-      <c r="K16" s="110"/>
-      <c r="L16" s="110"/>
-      <c r="M16" s="110"/>
-      <c r="N16" s="110"/>
-      <c r="O16" s="110"/>
-      <c r="P16" s="110"/>
+      <c r="I16" s="105"/>
+      <c r="J16" s="105"/>
+      <c r="K16" s="105"/>
+      <c r="L16" s="105"/>
+      <c r="M16" s="105"/>
+      <c r="N16" s="105"/>
+      <c r="O16" s="105"/>
+      <c r="P16" s="105"/>
       <c r="Q16"/>
       <c r="T16"/>
       <c r="U16"/>
@@ -17254,27 +17160,27 @@
         <v>10.4</v>
       </c>
       <c r="F17" s="54"/>
-      <c r="H17" s="112" t="str">
+      <c r="H17" s="107" t="str">
         <f>'EB1'!$B$6</f>
         <v>IMP</v>
       </c>
-      <c r="I17" s="112"/>
-      <c r="J17" s="112" t="str">
+      <c r="I17" s="107"/>
+      <c r="J17" s="107" t="str">
         <f t="shared" ref="J17:J23" si="4">$H$17&amp;C2&amp;1</f>
         <v>IMPDSL1</v>
       </c>
-      <c r="K17" s="115" t="str">
+      <c r="K17" s="110" t="str">
         <f t="shared" ref="K17:K23" si="5">"Import of "&amp;D2&amp; " Step "&amp;RIGHT(J17,1)</f>
         <v>Import of Diesel oil Step 1</v>
       </c>
-      <c r="L17" s="112" t="str">
+      <c r="L17" s="107" t="str">
         <f t="shared" ref="L17:L30" si="6">$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="M17" s="112"/>
-      <c r="N17" s="112"/>
-      <c r="O17" s="112"/>
-      <c r="P17" s="112"/>
+      <c r="M17" s="107"/>
+      <c r="N17" s="107"/>
+      <c r="O17" s="107"/>
+      <c r="P17" s="107"/>
       <c r="T17"/>
       <c r="U17"/>
       <c r="V17"/>
@@ -17294,24 +17200,24 @@
         <v>11.2</v>
       </c>
       <c r="F18" s="54"/>
-      <c r="H18" s="112"/>
-      <c r="I18" s="112"/>
-      <c r="J18" s="112" t="str">
+      <c r="H18" s="107"/>
+      <c r="I18" s="107"/>
+      <c r="J18" s="107" t="str">
         <f t="shared" si="4"/>
         <v>IMPKER1</v>
       </c>
-      <c r="K18" s="115" t="str">
+      <c r="K18" s="110" t="str">
         <f t="shared" si="5"/>
         <v>Import of Kerosenes Step 1</v>
       </c>
-      <c r="L18" s="112" t="str">
+      <c r="L18" s="107" t="str">
         <f t="shared" si="6"/>
         <v>PJ</v>
       </c>
-      <c r="M18" s="112"/>
-      <c r="N18" s="112"/>
-      <c r="O18" s="112"/>
-      <c r="P18" s="112"/>
+      <c r="M18" s="107"/>
+      <c r="N18" s="107"/>
+      <c r="O18" s="107"/>
+      <c r="P18" s="107"/>
       <c r="T18" s="1"/>
       <c r="U18"/>
       <c r="V18"/>
@@ -17331,24 +17237,24 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="F19" s="54"/>
-      <c r="H19" s="112"/>
-      <c r="I19" s="112"/>
-      <c r="J19" s="112" t="str">
+      <c r="H19" s="107"/>
+      <c r="I19" s="107"/>
+      <c r="J19" s="107" t="str">
         <f t="shared" si="4"/>
         <v>IMPLPG1</v>
       </c>
-      <c r="K19" s="115" t="str">
+      <c r="K19" s="110" t="str">
         <f t="shared" si="5"/>
         <v>Import of LPG Step 1</v>
       </c>
-      <c r="L19" s="112" t="str">
+      <c r="L19" s="107" t="str">
         <f t="shared" si="6"/>
         <v>PJ</v>
       </c>
-      <c r="M19" s="112"/>
-      <c r="N19" s="112"/>
-      <c r="O19" s="112"/>
-      <c r="P19" s="112"/>
+      <c r="M19" s="107"/>
+      <c r="N19" s="107"/>
+      <c r="O19" s="107"/>
+      <c r="P19" s="107"/>
       <c r="T19"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
@@ -17368,24 +17274,24 @@
         <v>11.2</v>
       </c>
       <c r="F20" s="54"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="112" t="str">
+      <c r="H20" s="107"/>
+      <c r="I20" s="107"/>
+      <c r="J20" s="107" t="str">
         <f t="shared" si="4"/>
         <v>IMPGSL1</v>
       </c>
-      <c r="K20" s="115" t="str">
+      <c r="K20" s="110" t="str">
         <f t="shared" si="5"/>
         <v>Import of Motor spirit Step 1</v>
       </c>
-      <c r="L20" s="112" t="str">
+      <c r="L20" s="107" t="str">
         <f t="shared" si="6"/>
         <v>PJ</v>
       </c>
-      <c r="M20" s="112"/>
-      <c r="N20" s="112"/>
-      <c r="O20" s="112"/>
-      <c r="P20" s="112"/>
+      <c r="M20" s="107"/>
+      <c r="N20" s="107"/>
+      <c r="O20" s="107"/>
+      <c r="P20" s="107"/>
       <c r="T20"/>
       <c r="U20"/>
       <c r="V20"/>
@@ -17405,24 +17311,24 @@
         <v>8.4</v>
       </c>
       <c r="F21" s="54"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="112" t="str">
+      <c r="H21" s="107"/>
+      <c r="I21" s="107"/>
+      <c r="J21" s="107" t="str">
         <f t="shared" si="4"/>
         <v>IMPNAP1</v>
       </c>
-      <c r="K21" s="115" t="str">
+      <c r="K21" s="110" t="str">
         <f t="shared" si="5"/>
         <v>Import of Naphtha Step 1</v>
       </c>
-      <c r="L21" s="112" t="str">
+      <c r="L21" s="107" t="str">
         <f t="shared" si="6"/>
         <v>PJ</v>
       </c>
-      <c r="M21" s="112"/>
-      <c r="N21" s="112"/>
-      <c r="O21" s="112"/>
-      <c r="P21" s="112"/>
+      <c r="M21" s="107"/>
+      <c r="N21" s="107"/>
+      <c r="O21" s="107"/>
+      <c r="P21" s="107"/>
       <c r="Q21"/>
       <c r="R21"/>
       <c r="S21"/>
@@ -17445,24 +17351,24 @@
         <v>8.4</v>
       </c>
       <c r="F22" s="54"/>
-      <c r="H22" s="112"/>
-      <c r="I22" s="112"/>
-      <c r="J22" s="112" t="str">
+      <c r="H22" s="107"/>
+      <c r="I22" s="107"/>
+      <c r="J22" s="107" t="str">
         <f t="shared" si="4"/>
         <v>IMPHFO1</v>
       </c>
-      <c r="K22" s="115" t="str">
+      <c r="K22" s="110" t="str">
         <f t="shared" si="5"/>
         <v>Import of Heavy Fuel Oil Step 1</v>
       </c>
-      <c r="L22" s="112" t="str">
+      <c r="L22" s="107" t="str">
         <f t="shared" si="6"/>
         <v>PJ</v>
       </c>
-      <c r="M22" s="112"/>
-      <c r="N22" s="112"/>
-      <c r="O22" s="112"/>
-      <c r="P22" s="112"/>
+      <c r="M22" s="107"/>
+      <c r="N22" s="107"/>
+      <c r="O22" s="107"/>
+      <c r="P22" s="107"/>
       <c r="S22"/>
       <c r="T22"/>
       <c r="U22"/>
@@ -17483,24 +17389,24 @@
         <v>8.4</v>
       </c>
       <c r="F23" s="54"/>
-      <c r="H23" s="112"/>
-      <c r="I23" s="112"/>
-      <c r="J23" s="112" t="str">
+      <c r="H23" s="107"/>
+      <c r="I23" s="107"/>
+      <c r="J23" s="107" t="str">
         <f t="shared" si="4"/>
         <v>IMPOPP1</v>
       </c>
-      <c r="K23" s="115" t="str">
+      <c r="K23" s="110" t="str">
         <f t="shared" si="5"/>
         <v>Import of Other Petroleum Products Step 1</v>
       </c>
-      <c r="L23" s="112" t="str">
+      <c r="L23" s="107" t="str">
         <f t="shared" si="6"/>
         <v>PJ</v>
       </c>
-      <c r="M23" s="112"/>
-      <c r="N23" s="112"/>
-      <c r="O23" s="112"/>
-      <c r="P23" s="112"/>
+      <c r="M23" s="107"/>
+      <c r="N23" s="107"/>
+      <c r="O23" s="107"/>
+      <c r="P23" s="107"/>
       <c r="Q23" s="5"/>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.2">
@@ -17521,27 +17427,27 @@
         <f>-'EB1'!G$7</f>
         <v>1683.1424999999999</v>
       </c>
-      <c r="H24" s="112" t="str">
+      <c r="H24" s="107" t="str">
         <f>'EB1'!B7</f>
         <v>EXP</v>
       </c>
-      <c r="I24" s="113"/>
-      <c r="J24" s="112" t="str">
+      <c r="I24" s="108"/>
+      <c r="J24" s="107" t="str">
         <f t="shared" ref="J24:J30" si="8">$H$24&amp;C2&amp;1</f>
         <v>EXPDSL1</v>
       </c>
-      <c r="K24" s="115" t="str">
+      <c r="K24" s="110" t="str">
         <f t="shared" ref="K24:K30" si="9">"Export of "&amp;D2&amp; " Step "&amp;RIGHT(J24,1)</f>
         <v>Export of Diesel oil Step 1</v>
       </c>
-      <c r="L24" s="112" t="str">
+      <c r="L24" s="107" t="str">
         <f t="shared" si="6"/>
         <v>PJ</v>
       </c>
-      <c r="M24" s="112"/>
-      <c r="N24" s="113"/>
-      <c r="O24" s="112"/>
-      <c r="P24" s="112"/>
+      <c r="M24" s="107"/>
+      <c r="N24" s="108"/>
+      <c r="O24" s="107"/>
+      <c r="P24" s="107"/>
       <c r="S24" s="1"/>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.2">
@@ -17562,24 +17468,24 @@
         <f>-'EB1'!H$7</f>
         <v>295.38850000000002</v>
       </c>
-      <c r="H25" s="113"/>
-      <c r="I25" s="113"/>
-      <c r="J25" s="112" t="str">
+      <c r="H25" s="108"/>
+      <c r="I25" s="108"/>
+      <c r="J25" s="107" t="str">
         <f t="shared" si="8"/>
         <v>EXPKER1</v>
       </c>
-      <c r="K25" s="115" t="str">
+      <c r="K25" s="110" t="str">
         <f t="shared" si="9"/>
         <v>Export of Kerosenes Step 1</v>
       </c>
-      <c r="L25" s="112" t="str">
+      <c r="L25" s="107" t="str">
         <f t="shared" si="6"/>
         <v>PJ</v>
       </c>
-      <c r="M25" s="112"/>
-      <c r="N25" s="113"/>
-      <c r="O25" s="112"/>
-      <c r="P25" s="112"/>
+      <c r="M25" s="107"/>
+      <c r="N25" s="108"/>
+      <c r="O25" s="107"/>
+      <c r="P25" s="107"/>
       <c r="Q25" s="5"/>
       <c r="R25" s="1"/>
     </row>
@@ -17601,24 +17507,24 @@
         <f>-'EB1'!I$7</f>
         <v>194.51650000000001</v>
       </c>
-      <c r="H26" s="112"/>
-      <c r="I26" s="112"/>
-      <c r="J26" s="112" t="str">
+      <c r="H26" s="107"/>
+      <c r="I26" s="107"/>
+      <c r="J26" s="107" t="str">
         <f t="shared" si="8"/>
         <v>EXPLPG1</v>
       </c>
-      <c r="K26" s="115" t="str">
+      <c r="K26" s="110" t="str">
         <f t="shared" si="9"/>
         <v>Export of LPG Step 1</v>
       </c>
-      <c r="L26" s="112" t="str">
+      <c r="L26" s="107" t="str">
         <f t="shared" si="6"/>
         <v>PJ</v>
       </c>
-      <c r="M26" s="112"/>
-      <c r="N26" s="112"/>
-      <c r="O26" s="112"/>
-      <c r="P26" s="112"/>
+      <c r="M26" s="107"/>
+      <c r="N26" s="107"/>
+      <c r="O26" s="107"/>
+      <c r="P26" s="107"/>
       <c r="Q26" s="5"/>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.2">
@@ -17639,24 +17545,24 @@
         <f>-'EB1'!J$7</f>
         <v>1500.6420000000001</v>
       </c>
-      <c r="H27" s="112"/>
-      <c r="I27" s="112"/>
-      <c r="J27" s="112" t="str">
+      <c r="H27" s="107"/>
+      <c r="I27" s="107"/>
+      <c r="J27" s="107" t="str">
         <f t="shared" si="8"/>
         <v>EXPGSL1</v>
       </c>
-      <c r="K27" s="115" t="str">
+      <c r="K27" s="110" t="str">
         <f t="shared" si="9"/>
         <v>Export of Motor spirit Step 1</v>
       </c>
-      <c r="L27" s="112" t="str">
+      <c r="L27" s="107" t="str">
         <f t="shared" si="6"/>
         <v>PJ</v>
       </c>
-      <c r="M27" s="112"/>
-      <c r="N27" s="112"/>
-      <c r="O27" s="112"/>
-      <c r="P27" s="112"/>
+      <c r="M27" s="107"/>
+      <c r="N27" s="107"/>
+      <c r="O27" s="107"/>
+      <c r="P27" s="107"/>
       <c r="Q27" s="5"/>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.2">
@@ -17677,24 +17583,24 @@
         <f>-'EB1'!K$7</f>
         <v>400.84</v>
       </c>
-      <c r="H28" s="113"/>
-      <c r="I28" s="113"/>
-      <c r="J28" s="112" t="str">
+      <c r="H28" s="108"/>
+      <c r="I28" s="108"/>
+      <c r="J28" s="107" t="str">
         <f t="shared" si="8"/>
         <v>EXPNAP1</v>
       </c>
-      <c r="K28" s="115" t="str">
+      <c r="K28" s="110" t="str">
         <f t="shared" si="9"/>
         <v>Export of Naphtha Step 1</v>
       </c>
-      <c r="L28" s="112" t="str">
+      <c r="L28" s="107" t="str">
         <f t="shared" si="6"/>
         <v>PJ</v>
       </c>
-      <c r="M28" s="112"/>
-      <c r="N28" s="113"/>
-      <c r="O28" s="113"/>
-      <c r="P28" s="113"/>
+      <c r="M28" s="107"/>
+      <c r="N28" s="108"/>
+      <c r="O28" s="108"/>
+      <c r="P28" s="108"/>
       <c r="Q28" s="5"/>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.2">
@@ -17715,24 +17621,24 @@
         <f>-'EB1'!L$7</f>
         <v>1239.28</v>
       </c>
-      <c r="H29" s="113"/>
-      <c r="I29" s="113"/>
-      <c r="J29" s="112" t="str">
+      <c r="H29" s="108"/>
+      <c r="I29" s="108"/>
+      <c r="J29" s="107" t="str">
         <f t="shared" si="8"/>
         <v>EXPHFO1</v>
       </c>
-      <c r="K29" s="115" t="str">
+      <c r="K29" s="110" t="str">
         <f t="shared" si="9"/>
         <v>Export of Heavy Fuel Oil Step 1</v>
       </c>
-      <c r="L29" s="112" t="str">
+      <c r="L29" s="107" t="str">
         <f t="shared" si="6"/>
         <v>PJ</v>
       </c>
-      <c r="M29" s="112"/>
-      <c r="N29" s="113"/>
-      <c r="O29" s="113"/>
-      <c r="P29" s="113"/>
+      <c r="M29" s="107"/>
+      <c r="N29" s="108"/>
+      <c r="O29" s="108"/>
+      <c r="P29" s="108"/>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B30" s="10" t="str">
@@ -17752,24 +17658,24 @@
         <f>-'EB1'!M$7</f>
         <v>453.036</v>
       </c>
-      <c r="H30" s="113"/>
-      <c r="I30" s="113"/>
-      <c r="J30" s="112" t="str">
+      <c r="H30" s="108"/>
+      <c r="I30" s="108"/>
+      <c r="J30" s="107" t="str">
         <f t="shared" si="8"/>
         <v>EXPOPP1</v>
       </c>
-      <c r="K30" s="115" t="str">
+      <c r="K30" s="110" t="str">
         <f t="shared" si="9"/>
         <v>Export of Other Petroleum Products Step 1</v>
       </c>
-      <c r="L30" s="112" t="str">
+      <c r="L30" s="107" t="str">
         <f t="shared" si="6"/>
         <v>PJ</v>
       </c>
-      <c r="M30" s="113"/>
-      <c r="N30" s="113"/>
-      <c r="O30" s="113"/>
-      <c r="P30" s="113"/>
+      <c r="M30" s="108"/>
+      <c r="N30" s="108"/>
+      <c r="O30" s="108"/>
+      <c r="P30" s="108"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B35" s="48"/>
@@ -17796,7 +17702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B1:V22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D11" sqref="D11:H11"/>
     </sheetView>
   </sheetViews>
@@ -17857,77 +17763,77 @@
         <f>'EB1'!Y2</f>
         <v>M€2005</v>
       </c>
-      <c r="H2" s="106" t="s">
+      <c r="H2" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="106"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="107"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="107"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
     </row>
     <row r="3" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
-      <c r="H3" s="108" t="s">
+      <c r="H3" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="109" t="s">
+      <c r="I3" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="108" t="s">
+      <c r="J3" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="108" t="s">
+      <c r="K3" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="108" t="s">
+      <c r="L3" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="108" t="s">
+      <c r="M3" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="108" t="s">
+      <c r="N3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="108" t="s">
+      <c r="O3" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="108" t="s">
+      <c r="P3" s="103" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:22" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
-      <c r="H4" s="110" t="s">
+      <c r="H4" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="110" t="s">
+      <c r="I4" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="110" t="s">
+      <c r="J4" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="110" t="s">
+      <c r="K4" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="110" t="s">
+      <c r="L4" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="110" t="s">
+      <c r="M4" s="105" t="s">
         <v>40</v>
       </c>
-      <c r="N4" s="110" t="s">
+      <c r="N4" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="O4" s="110" t="s">
+      <c r="O4" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="110" t="s">
+      <c r="P4" s="105" t="s">
         <v>29</v>
       </c>
       <c r="S4" s="5"/>
@@ -18020,15 +17926,15 @@
     <row r="11" spans="2:22" x14ac:dyDescent="0.2">
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
-      <c r="H11" s="106"/>
-      <c r="I11" s="106"/>
-      <c r="J11" s="113"/>
-      <c r="K11" s="113"/>
-      <c r="L11" s="113"/>
-      <c r="M11" s="113"/>
-      <c r="N11" s="113"/>
-      <c r="O11" s="113"/>
-      <c r="P11" s="113"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="101"/>
+      <c r="J11" s="108"/>
+      <c r="K11" s="108"/>
+      <c r="L11" s="108"/>
+      <c r="M11" s="108"/>
+      <c r="N11" s="108"/>
+      <c r="O11" s="108"/>
+      <c r="P11" s="108"/>
       <c r="T11" s="5"/>
       <c r="U11" s="5"/>
       <c r="V11" s="5"/>
@@ -18049,31 +17955,31 @@
       <c r="F12" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="H12" s="108" t="s">
+      <c r="H12" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="109" t="s">
+      <c r="I12" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="J12" s="108" t="s">
+      <c r="J12" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="K12" s="108" t="s">
+      <c r="K12" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="L12" s="108" t="s">
+      <c r="L12" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="M12" s="108" t="s">
+      <c r="M12" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="108" t="s">
+      <c r="N12" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="O12" s="108" t="s">
+      <c r="O12" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="P12" s="108" t="s">
+      <c r="P12" s="103" t="s">
         <v>20</v>
       </c>
       <c r="T12" s="5"/>
@@ -18096,31 +18002,31 @@
       <c r="F13" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="H13" s="110" t="s">
+      <c r="H13" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="I13" s="110" t="s">
+      <c r="I13" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="J13" s="110" t="s">
+      <c r="J13" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="K13" s="110" t="s">
+      <c r="K13" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="L13" s="110" t="s">
+      <c r="L13" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="M13" s="110" t="s">
+      <c r="M13" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="N13" s="110" t="s">
+      <c r="N13" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="O13" s="110" t="s">
+      <c r="O13" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="P13" s="110" t="s">
+      <c r="P13" s="105" t="s">
         <v>25</v>
       </c>
       <c r="U13" s="5"/>
@@ -18140,17 +18046,17 @@
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="H14" s="110" t="s">
+      <c r="H14" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="I14" s="110"/>
-      <c r="J14" s="110"/>
-      <c r="K14" s="110"/>
-      <c r="L14" s="110"/>
-      <c r="M14" s="110"/>
-      <c r="N14" s="110"/>
-      <c r="O14" s="110"/>
-      <c r="P14" s="110"/>
+      <c r="I14" s="105"/>
+      <c r="J14" s="105"/>
+      <c r="K14" s="105"/>
+      <c r="L14" s="105"/>
+      <c r="M14" s="105"/>
+      <c r="N14" s="105"/>
+      <c r="O14" s="105"/>
+      <c r="P14" s="105"/>
       <c r="Q14"/>
       <c r="T14"/>
       <c r="U14"/>
@@ -18174,29 +18080,29 @@
         <f>'EB1'!U6</f>
         <v>583.76</v>
       </c>
-      <c r="H15" s="112" t="str">
+      <c r="H15" s="107" t="str">
         <f>'EB1'!$B$6</f>
         <v>IMP</v>
       </c>
-      <c r="I15" s="112"/>
-      <c r="J15" s="112" t="str">
+      <c r="I15" s="107"/>
+      <c r="J15" s="107" t="str">
         <f>$H$15&amp;C2&amp;1</f>
         <v>IMPELC1</v>
       </c>
-      <c r="K15" s="115" t="str">
+      <c r="K15" s="110" t="str">
         <f>"Import of "&amp;D2&amp; " Step "&amp;RIGHT(J15,1)</f>
         <v>Import of Electricity Step 1</v>
       </c>
-      <c r="L15" s="112" t="str">
+      <c r="L15" s="107" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="M15" s="112"/>
-      <c r="N15" s="111" t="s">
+      <c r="M15" s="107"/>
+      <c r="N15" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="O15" s="112"/>
-      <c r="P15" s="112"/>
+      <c r="O15" s="107"/>
+      <c r="P15" s="107"/>
       <c r="T15"/>
       <c r="U15"/>
       <c r="V15"/>
@@ -18219,29 +18125,29 @@
         <f>-'EB1'!U$7</f>
         <v>563.40200000000004</v>
       </c>
-      <c r="H16" s="112" t="str">
+      <c r="H16" s="107" t="str">
         <f>'EB1'!B7</f>
         <v>EXP</v>
       </c>
-      <c r="I16" s="113"/>
-      <c r="J16" s="112" t="str">
+      <c r="I16" s="108"/>
+      <c r="J16" s="107" t="str">
         <f>$H$16&amp;C2&amp;1</f>
         <v>EXPELC1</v>
       </c>
-      <c r="K16" s="115" t="str">
+      <c r="K16" s="110" t="str">
         <f>"Export of "&amp;D2&amp; " Step "&amp;RIGHT(J16,1)</f>
         <v>Export of Electricity Step 1</v>
       </c>
-      <c r="L16" s="112" t="str">
+      <c r="L16" s="107" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="M16" s="112"/>
-      <c r="N16" s="111" t="s">
+      <c r="M16" s="107"/>
+      <c r="N16" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="O16" s="112"/>
-      <c r="P16" s="112"/>
+      <c r="O16" s="107"/>
+      <c r="P16" s="107"/>
       <c r="S16" s="1"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.2">

--- a/VT_REG1_PRI_V12.xlsx
+++ b/VT_REG1_PRI_V12.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\VEDA_Models\Demo_Adv_Veda\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\Model_Demo_Adv_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45BB00F6-56ED-4E62-8865-399A776B69F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88468C3-B7C1-4603-90BA-36B460366858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4815" yWindow="1410" windowWidth="20040" windowHeight="14190" tabRatio="901" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" tabRatio="901" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EB1" sheetId="133" r:id="rId1"/>
@@ -6567,7 +6567,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="155">
   <si>
     <t>CommName</t>
   </si>
@@ -7006,6 +7006,33 @@
   <si>
     <t>TOTCO2</t>
   </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>commodity</t>
+  </si>
+  <si>
+    <t>IMPGAS1</t>
+  </si>
+  <si>
+    <t>other_indexes</t>
+  </si>
+  <si>
+    <t>IMP~OUT~ELCCO2N</t>
+  </si>
+  <si>
+    <t>~FI_T: IRE_FLOSUM</t>
+  </si>
+  <si>
+    <t>MINGAS1</t>
+  </si>
+  <si>
+    <t>MINGAS2</t>
+  </si>
+  <si>
+    <t>MINGAS3</t>
+  </si>
 </sst>
 </file>
 
@@ -7016,7 +7043,7 @@
     <numFmt numFmtId="165" formatCode="General_)"/>
     <numFmt numFmtId="166" formatCode="\Te\x\t"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -7192,6 +7219,10 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="16">
@@ -10411,7 +10442,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="IEA Data"/>
@@ -10546,7 +10577,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="EnergyBalance"/>
@@ -11314,30 +11345,30 @@
       <selection activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.1328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.85546875" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="10.85546875" customWidth="1"/>
-    <col min="13" max="13" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="21" width="10.85546875" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.86328125" customWidth="1"/>
+    <col min="8" max="8" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="10.86328125" customWidth="1"/>
+    <col min="13" max="13" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="21" width="10.86328125" customWidth="1"/>
+    <col min="22" max="22" width="7.265625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.265625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="45" width="10.85546875" customWidth="1"/>
+    <col min="29" max="29" width="21.3984375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="23.3984375" bestFit="1" customWidth="1"/>
+    <col min="31" max="45" width="10.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" s="5" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="X1" s="24" t="s">
         <v>80</v>
       </c>
@@ -11351,7 +11382,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="15.75" x14ac:dyDescent="0.5">
       <c r="C2" s="6"/>
       <c r="D2" s="73" t="s">
         <v>44</v>
@@ -11419,7 +11450,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="26.25" x14ac:dyDescent="0.4">
       <c r="C3" s="85" t="s">
         <v>132</v>
       </c>
@@ -11481,7 +11512,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="C4" s="75" t="s">
         <v>57</v>
       </c>
@@ -11505,7 +11536,7 @@
       <c r="U4" s="76"/>
       <c r="V4" s="70"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B5" s="47" t="s">
         <v>58</v>
       </c>
@@ -11590,7 +11621,7 @@
       </c>
       <c r="X5" s="8"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B6" s="47" t="s">
         <v>60</v>
       </c>
@@ -11674,7 +11705,7 @@
         <v>30166.022000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B7" s="47" t="s">
         <v>62</v>
       </c>
@@ -11759,7 +11790,7 @@
       </c>
       <c r="X7" s="8"/>
     </row>
-    <row r="8" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B8" s="69" t="s">
         <v>121</v>
       </c>
@@ -11834,7 +11865,7 @@
         <v>39100.03325</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B9" s="86"/>
       <c r="C9" s="87" t="s">
         <v>133</v>
@@ -11859,7 +11890,7 @@
       <c r="U9" s="88"/>
       <c r="V9" s="89"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B10" s="47" t="s">
         <v>134</v>
       </c>
@@ -11943,7 +11974,7 @@
         <v>-1274.6994499999998</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B11" s="47" t="s">
         <v>50</v>
       </c>
@@ -12027,7 +12058,7 @@
         <v>-8279.3107875000023</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B12" s="47" t="s">
         <v>137</v>
       </c>
@@ -12111,7 +12142,7 @@
         <v>-26.820549999999912</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B13" s="47" t="s">
         <v>64</v>
       </c>
@@ -12195,7 +12226,7 @@
         <v>-200.86150000000021</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B14" s="86"/>
       <c r="C14" s="50" t="s">
         <v>140</v>
@@ -12268,7 +12299,7 @@
         <v>-9781.6922875000037</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
       <c r="D15" s="8"/>
       <c r="F15" s="8"/>
@@ -12280,7 +12311,7 @@
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="D16" s="8"/>
       <c r="F16" s="8"/>
@@ -12292,7 +12323,7 @@
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
     </row>
-    <row r="17" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A17" s="5"/>
       <c r="C17" s="49" t="s">
         <v>114</v>
@@ -12308,7 +12339,7 @@
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D20" s="25" t="s">
         <v>44</v>
       </c>
@@ -12319,7 +12350,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C21" s="26" t="s">
         <v>89</v>
       </c>
@@ -12333,7 +12364,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C22" s="28" t="s">
         <v>90</v>
       </c>
@@ -12361,30 +12392,30 @@
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" style="33" customWidth="1"/>
     <col min="2" max="2" width="14" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="33" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="33" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="33" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="33" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.73046875" style="33" customWidth="1"/>
+    <col min="4" max="4" width="11.265625" style="33" customWidth="1"/>
+    <col min="5" max="5" width="12.59765625" style="33" customWidth="1"/>
+    <col min="6" max="6" width="13.86328125" style="33" customWidth="1"/>
+    <col min="7" max="7" width="13.1328125" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.86328125" style="33" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="2" style="33" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" customWidth="1"/>
-    <col min="11" max="11" width="7.5703125" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.140625" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" customWidth="1"/>
-    <col min="17" max="17" width="13.7109375" customWidth="1"/>
-    <col min="18" max="18" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.85546875" style="33"/>
+    <col min="10" max="10" width="11.86328125" customWidth="1"/>
+    <col min="11" max="11" width="7.59765625" customWidth="1"/>
+    <col min="12" max="12" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.86328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.1328125" customWidth="1"/>
+    <col min="15" max="15" width="10.86328125" customWidth="1"/>
+    <col min="16" max="16" width="13.59765625" customWidth="1"/>
+    <col min="17" max="17" width="13.73046875" customWidth="1"/>
+    <col min="18" max="18" width="7.59765625" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.86328125" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B1" s="30" t="s">
         <v>66</v>
       </c>
@@ -12407,7 +12438,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:18" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B2" s="14" t="s">
         <v>64</v>
       </c>
@@ -12443,7 +12474,7 @@
       <c r="Q2" s="102"/>
       <c r="R2" s="102"/>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="J3" s="103" t="s">
         <v>7</v>
       </c>
@@ -12472,7 +12503,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:18" s="35" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:18" s="35" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" s="40"/>
       <c r="C4" s="41"/>
       <c r="D4" s="41"/>
@@ -12506,7 +12537,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:18" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B5" s="39"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -12522,11 +12553,11 @@
       <c r="Q5"/>
       <c r="R5"/>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="2:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="D8" s="4" t="s">
         <v>13</v>
       </c>
@@ -12547,7 +12578,7 @@
       <c r="Q8" s="102"/>
       <c r="R8" s="102"/>
     </row>
-    <row r="9" spans="2:18" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:18" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="20" t="s">
         <v>1</v>
       </c>
@@ -12596,7 +12627,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:18" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:18" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="19" t="s">
         <v>39</v>
       </c>
@@ -12645,7 +12676,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:18" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="18" t="s">
         <v>77</v>
       </c>
@@ -12671,7 +12702,7 @@
       <c r="Q11" s="105"/>
       <c r="R11" s="105"/>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B12" s="33" t="str">
         <f>L12</f>
         <v>REFEOIL00</v>
@@ -12724,7 +12755,7 @@
       </c>
       <c r="R12" s="107"/>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.35">
       <c r="D13" s="33" t="str">
         <f>'EB1'!H2</f>
         <v>KER</v>
@@ -12746,7 +12777,7 @@
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
       <c r="D14" s="36" t="str">
@@ -12771,7 +12802,7 @@
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
       <c r="D15" s="36" t="str">
@@ -12796,7 +12827,7 @@
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
       <c r="D16" s="36" t="str">
@@ -12821,7 +12852,7 @@
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B17" s="36"/>
       <c r="C17" s="36"/>
       <c r="D17" s="36" t="str">
@@ -12846,7 +12877,7 @@
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
       <c r="D18" s="36" t="str">
@@ -12871,7 +12902,7 @@
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B19" s="36"/>
       <c r="C19" s="36"/>
       <c r="D19" s="36"/>
@@ -12890,7 +12921,7 @@
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.35">
       <c r="E20" s="44"/>
       <c r="I20" s="36"/>
       <c r="J20" s="5"/>
@@ -12903,16 +12934,16 @@
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.35">
       <c r="E21" s="44"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B23" s="48"/>
       <c r="C23" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B24" s="56"/>
       <c r="C24" s="1" t="s">
         <v>116</v>
@@ -12929,20 +12960,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="B7:S12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.86328125" customWidth="1"/>
+    <col min="13" max="13" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.73046875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.35">
       <c r="K7" s="10"/>
       <c r="L7" s="5"/>
       <c r="M7" s="10"/>
@@ -12953,7 +12984,7 @@
       <c r="R7" s="10"/>
       <c r="S7" s="10"/>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B9" s="101" t="s">
         <v>14</v>
       </c>
@@ -12966,7 +12997,7 @@
       <c r="I9" s="102"/>
       <c r="J9" s="102"/>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B10" s="103" t="s">
         <v>7</v>
       </c>
@@ -12995,7 +13026,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:19" ht="31.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="105" t="s">
         <v>37</v>
       </c>
@@ -13024,7 +13055,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B12" s="106" t="s">
         <v>142</v>
       </c>
@@ -13059,23 +13090,23 @@
       <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" customWidth="1"/>
-    <col min="13" max="13" width="6.7109375" customWidth="1"/>
-    <col min="14" max="14" width="26.140625" customWidth="1"/>
-    <col min="15" max="15" width="22.5703125" customWidth="1"/>
-    <col min="18" max="18" width="2.7109375" customWidth="1"/>
+    <col min="1" max="1" width="1.86328125" customWidth="1"/>
+    <col min="2" max="2" width="7.73046875" customWidth="1"/>
+    <col min="3" max="3" width="6.86328125" customWidth="1"/>
+    <col min="13" max="13" width="6.73046875" customWidth="1"/>
+    <col min="14" max="14" width="26.1328125" customWidth="1"/>
+    <col min="15" max="15" width="22.59765625" customWidth="1"/>
+    <col min="18" max="18" width="2.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:18" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="B3" s="62" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="2:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="D5" s="111" t="s">
         <v>123</v>
       </c>
@@ -13094,7 +13125,7 @@
       <c r="Q5" s="113"/>
       <c r="R5" s="72"/>
     </row>
-    <row r="6" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D6" s="63" t="s">
         <v>119</v>
       </c>
@@ -13111,7 +13142,7 @@
       <c r="P6" s="63"/>
       <c r="Q6" s="64"/>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="M7" s="63" t="s">
         <v>120</v>
       </c>
@@ -13119,7 +13150,7 @@
       <c r="O7" s="63"/>
       <c r="P7" s="63"/>
     </row>
-    <row r="44" spans="14:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="14:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="N44" s="64"/>
       <c r="O44" s="64"/>
       <c r="P44" s="64"/>
@@ -13144,28 +13175,28 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.73046875" customWidth="1"/>
+    <col min="5" max="5" width="14.3984375" customWidth="1"/>
+    <col min="6" max="6" width="8.3984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
     <col min="8" max="8" width="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.73046875" customWidth="1"/>
+    <col min="10" max="10" width="7.1328125" customWidth="1"/>
+    <col min="11" max="11" width="11.3984375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="35" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" customWidth="1"/>
+    <col min="13" max="13" width="6.1328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.59765625" customWidth="1"/>
     <col min="15" max="15" width="13" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" customWidth="1"/>
-    <col min="17" max="17" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.1328125" customWidth="1"/>
+    <col min="17" max="17" width="7.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B1" s="30" t="s">
         <v>66</v>
       </c>
@@ -13182,7 +13213,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:18" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B2" s="14"/>
       <c r="C2" s="14" t="str">
         <f>'EB1'!D2</f>
@@ -13212,7 +13243,7 @@
       <c r="P2" s="102"/>
       <c r="Q2" s="102"/>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="I3" s="103" t="s">
         <v>7</v>
       </c>
@@ -13241,7 +13272,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:18" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C4" s="1"/>
       <c r="I4" s="105" t="s">
         <v>37</v>
@@ -13271,7 +13302,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.35">
       <c r="I5" s="106" t="s">
         <v>65</v>
       </c>
@@ -13293,7 +13324,7 @@
       <c r="P5" s="106"/>
       <c r="Q5" s="106"/>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="D7" s="4" t="s">
         <v>144</v>
       </c>
@@ -13310,7 +13341,7 @@
       <c r="P7" s="108"/>
       <c r="Q7" s="108"/>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B8" s="3" t="s">
         <v>1</v>
       </c>
@@ -13358,7 +13389,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:18" s="5" customFormat="1" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:18" s="5" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="18" t="s">
         <v>39</v>
       </c>
@@ -13405,7 +13436,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:18" s="5" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:18" s="5" customFormat="1" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="18" t="s">
         <v>77</v>
       </c>
@@ -13435,7 +13466,7 @@
       <c r="P10" s="109"/>
       <c r="Q10" s="109"/>
     </row>
-    <row r="11" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B11" s="10" t="str">
         <f>K11</f>
         <v>MINCOA1</v>
@@ -13480,7 +13511,7 @@
       <c r="P11" s="107"/>
       <c r="Q11" s="107"/>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B12" s="10" t="str">
         <f>K12</f>
         <v>MINCOA2</v>
@@ -13523,7 +13554,7 @@
       <c r="Q12" s="107"/>
       <c r="R12" s="5"/>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B13" s="10" t="str">
         <f>K13</f>
         <v>MINCOA3</v>
@@ -13564,7 +13595,7 @@
       <c r="P13" s="107"/>
       <c r="Q13" s="107"/>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B14" s="10" t="str">
         <f>K14</f>
         <v>IMPCOA1</v>
@@ -13604,7 +13635,7 @@
       <c r="P14" s="107"/>
       <c r="Q14" s="107"/>
     </row>
-    <row r="15" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="str">
         <f>K15</f>
         <v>EXPCOA1</v>
@@ -13648,17 +13679,17 @@
       <c r="Q15" s="107"/>
       <c r="R15"/>
     </row>
-    <row r="16" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="E16" s="9"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -13677,7 +13708,7 @@
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
@@ -13690,7 +13721,7 @@
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
@@ -13703,7 +13734,7 @@
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
     </row>
-    <row r="22" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C22"/>
       <c r="D22"/>
       <c r="E22"/>
@@ -13721,10 +13752,10 @@
       <c r="Q22"/>
       <c r="R22"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.35">
       <c r="R23" s="1"/>
     </row>
-    <row r="25" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B25" s="58"/>
       <c r="C25" s="1" t="s">
         <v>115</v>
@@ -13745,7 +13776,7 @@
       <c r="Q25"/>
       <c r="R25"/>
     </row>
-    <row r="26" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B26" s="56"/>
       <c r="C26" s="1" t="s">
         <v>116</v>
@@ -13765,7 +13796,7 @@
       <c r="P26"/>
       <c r="Q26"/>
     </row>
-    <row r="27" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
@@ -13783,7 +13814,7 @@
       <c r="P27"/>
       <c r="Q27"/>
     </row>
-    <row r="28" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
@@ -13801,7 +13832,7 @@
       <c r="P28"/>
       <c r="Q28"/>
     </row>
-    <row r="29" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
@@ -13819,7 +13850,7 @@
       <c r="P29"/>
       <c r="Q29"/>
     </row>
-    <row r="30" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
@@ -13837,7 +13868,7 @@
       <c r="P30"/>
       <c r="Q30"/>
     </row>
-    <row r="31" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
@@ -13855,7 +13886,7 @@
       <c r="P31"/>
       <c r="Q31"/>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.35">
       <c r="R32" s="5"/>
     </row>
   </sheetData>
@@ -13871,32 +13902,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:R34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.73046875" customWidth="1"/>
+    <col min="5" max="5" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.73046875" customWidth="1"/>
+    <col min="7" max="7" width="14.265625" customWidth="1"/>
     <col min="8" max="8" width="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.73046875" customWidth="1"/>
+    <col min="10" max="10" width="7.1328125" customWidth="1"/>
+    <col min="11" max="11" width="11.3984375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="35" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.7109375" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" customWidth="1"/>
+    <col min="13" max="13" width="6.73046875" customWidth="1"/>
+    <col min="14" max="14" width="11.59765625" customWidth="1"/>
     <col min="15" max="15" width="13" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" customWidth="1"/>
-    <col min="17" max="17" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.1328125" customWidth="1"/>
+    <col min="17" max="17" width="7.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B1" s="30" t="s">
         <v>66</v>
       </c>
@@ -13913,7 +13944,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:18" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B2" s="14"/>
       <c r="C2" s="14" t="str">
         <f>'EB1'!E2</f>
@@ -13943,7 +13974,7 @@
       <c r="P2" s="102"/>
       <c r="Q2" s="102"/>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="I3" s="103" t="s">
         <v>7</v>
       </c>
@@ -13972,7 +14003,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:18" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C4" s="1"/>
       <c r="I4" s="105" t="s">
         <v>37</v>
@@ -14002,7 +14033,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.35">
       <c r="I5" s="106" t="s">
         <v>65</v>
       </c>
@@ -14024,7 +14055,7 @@
       <c r="P5" s="106"/>
       <c r="Q5" s="106"/>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="D7" s="4" t="s">
         <v>13</v>
       </c>
@@ -14041,7 +14072,7 @@
       <c r="P7" s="108"/>
       <c r="Q7" s="108"/>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B8" s="3" t="s">
         <v>1</v>
       </c>
@@ -14088,7 +14119,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:18" s="5" customFormat="1" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:18" s="5" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="18" t="s">
         <v>39</v>
       </c>
@@ -14135,7 +14166,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:18" s="5" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:18" s="5" customFormat="1" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="18" t="s">
         <v>77</v>
       </c>
@@ -14165,7 +14196,7 @@
       <c r="P10" s="109"/>
       <c r="Q10" s="109"/>
     </row>
-    <row r="11" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B11" s="10" t="str">
         <f>K11</f>
         <v>MINGAS1</v>
@@ -14210,7 +14241,7 @@
       <c r="P11" s="107"/>
       <c r="Q11" s="107"/>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B12" s="10" t="str">
         <f>K12</f>
         <v>MINGAS2</v>
@@ -14254,7 +14285,7 @@
       <c r="Q12" s="107"/>
       <c r="R12" s="5"/>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B13" s="10" t="str">
         <f>K13</f>
         <v>MINGAS3</v>
@@ -14295,7 +14326,7 @@
       <c r="P13" s="107"/>
       <c r="Q13" s="107"/>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B14" s="10" t="str">
         <f>K14</f>
         <v>IMPGAS1</v>
@@ -14338,7 +14369,7 @@
       <c r="P14" s="107"/>
       <c r="Q14" s="107"/>
     </row>
-    <row r="15" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="str">
         <f>K15</f>
         <v>EXPGAS1</v>
@@ -14382,20 +14413,20 @@
       <c r="Q15" s="107"/>
       <c r="R15"/>
     </row>
-    <row r="16" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B16" s="1"/>
       <c r="F16" s="61"/>
     </row>
-    <row r="17" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19"/>
       <c r="F19"/>
       <c r="G19"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
@@ -14409,7 +14440,7 @@
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.35">
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -14420,13 +14451,13 @@
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B22" s="58"/>
       <c r="C22" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B23" s="56"/>
       <c r="C23" s="1" t="s">
         <v>116</v>
@@ -14447,11 +14478,11 @@
       <c r="Q23"/>
       <c r="R23"/>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.35">
       <c r="H24" s="1"/>
       <c r="R24" s="1"/>
     </row>
-    <row r="26" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
@@ -14470,7 +14501,7 @@
       <c r="Q26"/>
       <c r="R26"/>
     </row>
-    <row r="27" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
@@ -14487,7 +14518,7 @@
       <c r="P27"/>
       <c r="Q27"/>
     </row>
-    <row r="28" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
@@ -14504,10 +14535,12 @@
       <c r="P28"/>
       <c r="Q28"/>
     </row>
-    <row r="29" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B29"/>
       <c r="C29"/>
-      <c r="D29"/>
+      <c r="D29" t="s">
+        <v>151</v>
+      </c>
       <c r="E29"/>
       <c r="F29"/>
       <c r="G29"/>
@@ -14521,79 +14554,235 @@
       <c r="P29"/>
       <c r="Q29"/>
     </row>
-    <row r="30" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B30"/>
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="F30"/>
-      <c r="G30"/>
-      <c r="I30"/>
-      <c r="J30"/>
-      <c r="K30"/>
-      <c r="L30"/>
+    <row r="30" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>146</v>
+      </c>
+      <c r="C30" t="s">
+        <v>147</v>
+      </c>
+      <c r="D30" t="s">
+        <v>149</v>
+      </c>
+      <c r="E30">
+        <v>2005</v>
+      </c>
+      <c r="F30">
+        <f>E30+1</f>
+        <v>2006</v>
+      </c>
+      <c r="G30">
+        <f t="shared" ref="G30:L30" si="0">F30+1</f>
+        <v>2007</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>2008</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>2009</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="0"/>
+        <v>2010</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="0"/>
+        <v>2011</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="0"/>
+        <v>2012</v>
+      </c>
       <c r="M30"/>
       <c r="N30"/>
       <c r="O30"/>
       <c r="P30"/>
       <c r="Q30"/>
     </row>
-    <row r="31" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B31"/>
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="G31"/>
-      <c r="I31"/>
-      <c r="J31"/>
-      <c r="K31"/>
-      <c r="L31"/>
+    <row r="31" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>148</v>
+      </c>
+      <c r="C31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" t="s">
+        <v>150</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+      <c r="H31">
+        <v>4</v>
+      </c>
+      <c r="I31">
+        <v>5</v>
+      </c>
+      <c r="J31">
+        <v>6</v>
+      </c>
+      <c r="K31">
+        <v>7</v>
+      </c>
+      <c r="L31">
+        <v>8</v>
+      </c>
       <c r="M31"/>
       <c r="N31"/>
       <c r="O31"/>
       <c r="P31"/>
       <c r="Q31"/>
     </row>
-    <row r="32" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B32"/>
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32"/>
-      <c r="G32"/>
-      <c r="I32"/>
-      <c r="J32"/>
-      <c r="K32"/>
-      <c r="L32"/>
+    <row r="32" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>152</v>
+      </c>
+      <c r="C32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" t="s">
+        <v>150</v>
+      </c>
+      <c r="E32">
+        <f>E31+1</f>
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <f t="shared" ref="F32:L32" si="1">F31+1</f>
+        <v>3</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
       <c r="M32"/>
       <c r="N32"/>
       <c r="O32"/>
       <c r="P32"/>
       <c r="Q32"/>
     </row>
-    <row r="33" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33"/>
-      <c r="G33"/>
-      <c r="I33"/>
-      <c r="J33"/>
-      <c r="K33"/>
-      <c r="L33"/>
+    <row r="33" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>153</v>
+      </c>
+      <c r="C33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" t="s">
+        <v>150</v>
+      </c>
+      <c r="E33">
+        <f>E32</f>
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ref="F33:F34" si="2">F32</f>
+        <v>3</v>
+      </c>
+      <c r="G33">
+        <f t="shared" ref="G33:G34" si="3">G32</f>
+        <v>4</v>
+      </c>
+      <c r="H33">
+        <f t="shared" ref="H33:H34" si="4">H32</f>
+        <v>5</v>
+      </c>
+      <c r="I33">
+        <f t="shared" ref="I33:I34" si="5">I32</f>
+        <v>6</v>
+      </c>
+      <c r="J33">
+        <f t="shared" ref="J33:J34" si="6">J32</f>
+        <v>7</v>
+      </c>
+      <c r="K33">
+        <f t="shared" ref="K33:K34" si="7">K32</f>
+        <v>8</v>
+      </c>
+      <c r="L33">
+        <f t="shared" ref="L33:L34" si="8">L32</f>
+        <v>9</v>
+      </c>
       <c r="M33"/>
       <c r="N33"/>
       <c r="O33"/>
       <c r="P33"/>
       <c r="Q33"/>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="H34" s="5"/>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>154</v>
+      </c>
+      <c r="C34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" t="s">
+        <v>150</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ref="E34" si="9">E33</f>
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
       <c r="R34" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -14610,28 +14799,28 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.73046875" customWidth="1"/>
+    <col min="5" max="5" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1328125" customWidth="1"/>
+    <col min="7" max="7" width="14.1328125" customWidth="1"/>
     <col min="8" max="8" width="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.73046875" customWidth="1"/>
+    <col min="10" max="10" width="7.1328125" customWidth="1"/>
+    <col min="11" max="11" width="11.3984375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="35" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.5703125" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" customWidth="1"/>
+    <col min="13" max="13" width="6.59765625" customWidth="1"/>
+    <col min="14" max="14" width="11.59765625" customWidth="1"/>
     <col min="15" max="15" width="13" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" customWidth="1"/>
-    <col min="17" max="17" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.1328125" customWidth="1"/>
+    <col min="17" max="17" width="7.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:23" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B1" s="30" t="s">
         <v>66</v>
       </c>
@@ -14648,7 +14837,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:23" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B2" s="14"/>
       <c r="C2" s="14" t="str">
         <f>'EB1'!F2</f>
@@ -14678,7 +14867,7 @@
       <c r="P2" s="102"/>
       <c r="Q2" s="102"/>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:23" ht="13.15" x14ac:dyDescent="0.4">
       <c r="I3" s="103" t="s">
         <v>7</v>
       </c>
@@ -14707,7 +14896,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:23" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:23" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C4" s="1"/>
       <c r="I4" s="105" t="s">
         <v>37</v>
@@ -14739,7 +14928,7 @@
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.35">
       <c r="I5" s="106" t="s">
         <v>65</v>
       </c>
@@ -14766,14 +14955,14 @@
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.35">
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:23" ht="13.15" x14ac:dyDescent="0.4">
       <c r="D7" s="4" t="s">
         <v>13</v>
       </c>
@@ -14792,7 +14981,7 @@
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:23" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B8" s="3" t="s">
         <v>1</v>
       </c>
@@ -14839,7 +15028,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:23" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:23" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="18" t="s">
         <v>39</v>
       </c>
@@ -14887,7 +15076,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:23" s="5" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:23" s="5" customFormat="1" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="18" t="s">
         <v>77</v>
       </c>
@@ -14920,7 +15109,7 @@
       <c r="V10"/>
       <c r="W10"/>
     </row>
-    <row r="11" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B11" s="10" t="str">
         <f>K11</f>
         <v>MINOIL1</v>
@@ -14965,7 +15154,7 @@
       <c r="P11" s="107"/>
       <c r="Q11" s="107"/>
     </row>
-    <row r="12" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B12" s="10" t="str">
         <f>K12</f>
         <v>MINOIL2</v>
@@ -15007,7 +15196,7 @@
       <c r="P12" s="107"/>
       <c r="Q12" s="107"/>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B13" s="10" t="str">
         <f>K13</f>
         <v>MINOIL3</v>
@@ -15054,7 +15243,7 @@
       <c r="V13" s="5"/>
       <c r="W13" s="5"/>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B14" s="10" t="str">
         <f>K14</f>
         <v>IMPOIL1</v>
@@ -15099,7 +15288,7 @@
       <c r="V14" s="5"/>
       <c r="W14" s="5"/>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="str">
         <f>K15</f>
         <v>EXPOIL1</v>
@@ -15145,7 +15334,7 @@
       <c r="V15" s="5"/>
       <c r="W15" s="5"/>
     </row>
-    <row r="16" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="F16" s="61"/>
@@ -15155,7 +15344,7 @@
       <c r="V16"/>
       <c r="W16"/>
     </row>
-    <row r="17" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B17" s="1"/>
       <c r="F17" s="61"/>
       <c r="S17"/>
@@ -15164,21 +15353,21 @@
       <c r="V17"/>
       <c r="W17"/>
     </row>
-    <row r="18" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="S18"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18"/>
       <c r="W18"/>
     </row>
-    <row r="19" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="S19" s="1"/>
       <c r="T19"/>
       <c r="U19"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
     </row>
-    <row r="20" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20"/>
@@ -15190,7 +15379,7 @@
       <c r="V20"/>
       <c r="W20"/>
     </row>
-    <row r="21" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C21"/>
       <c r="D21"/>
       <c r="E21"/>
@@ -15203,7 +15392,7 @@
       <c r="V21"/>
       <c r="W21"/>
     </row>
-    <row r="22" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C22"/>
       <c r="D22"/>
       <c r="E22"/>
@@ -15225,42 +15414,42 @@
       <c r="V22"/>
       <c r="W22"/>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B23" s="58"/>
       <c r="C23" s="1" t="s">
         <v>115</v>
       </c>
       <c r="R23" s="5"/>
     </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B24" s="56"/>
       <c r="C24" s="1" t="s">
         <v>116</v>
       </c>
       <c r="H24" s="1"/>
     </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:23" x14ac:dyDescent="0.35">
       <c r="H27" s="5"/>
     </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:23" x14ac:dyDescent="0.35">
       <c r="H28" s="5"/>
     </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:23" x14ac:dyDescent="0.35">
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:23" x14ac:dyDescent="0.35">
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:23" x14ac:dyDescent="0.35">
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:23" x14ac:dyDescent="0.35">
       <c r="H32" s="5"/>
     </row>
-    <row r="33" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H33" s="5"/>
     </row>
-    <row r="34" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H34" s="5"/>
     </row>
   </sheetData>
@@ -15280,28 +15469,28 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2" style="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.86328125" customWidth="1"/>
+    <col min="3" max="3" width="11.86328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.265625" customWidth="1"/>
     <col min="7" max="7" width="2" style="33" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.86328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.1328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.1328125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.85546875" style="33"/>
+    <col min="17" max="16384" width="8.86328125" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:17" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B1" s="30" t="s">
         <v>66</v>
       </c>
@@ -15318,7 +15507,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:17" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B2" s="14"/>
       <c r="C2" s="14" t="str">
         <f>'EB1'!N2</f>
@@ -15348,7 +15537,7 @@
       <c r="O2" s="102"/>
       <c r="P2" s="102"/>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:17" ht="13.15" x14ac:dyDescent="0.4">
       <c r="F3" s="13"/>
       <c r="H3" s="103" t="s">
         <v>7</v>
@@ -15378,7 +15567,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:17" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:17" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="1"/>
       <c r="H4" s="105" t="s">
         <v>37</v>
@@ -15408,7 +15597,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.35">
       <c r="H5" s="106" t="s">
         <v>65</v>
       </c>
@@ -15430,7 +15619,7 @@
       <c r="O5" s="106"/>
       <c r="P5" s="106"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:17" ht="13.15" x14ac:dyDescent="0.4">
       <c r="D7" s="4" t="s">
         <v>13</v>
       </c>
@@ -15447,7 +15636,7 @@
       <c r="O7" s="108"/>
       <c r="P7" s="108"/>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:17" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B8" s="3" t="s">
         <v>1</v>
       </c>
@@ -15491,7 +15680,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:17" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="18" t="s">
         <v>39</v>
       </c>
@@ -15535,7 +15724,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:17" s="35" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17" s="35" customFormat="1" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="18" t="s">
         <v>77</v>
       </c>
@@ -15563,7 +15752,7 @@
       <c r="P10" s="109"/>
       <c r="Q10" s="33"/>
     </row>
-    <row r="11" spans="2:17" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:17" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B11" s="10" t="str">
         <f>J11</f>
         <v>MINNUC1</v>
@@ -15602,7 +15791,7 @@
       <c r="O11" s="107"/>
       <c r="P11" s="107"/>
     </row>
-    <row r="12" spans="2:17" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:17" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -15618,7 +15807,7 @@
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -15636,7 +15825,7 @@
       <c r="P13" s="5"/>
       <c r="Q13" s="35"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -15652,7 +15841,7 @@
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -15668,7 +15857,7 @@
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="2:17" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:17" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="5"/>
@@ -15686,7 +15875,7 @@
       <c r="P16" s="5"/>
       <c r="Q16" s="33"/>
     </row>
-    <row r="17" spans="2:17" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:17" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -15702,7 +15891,7 @@
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -15720,7 +15909,7 @@
       <c r="P18" s="5"/>
       <c r="Q18" s="35"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -15736,7 +15925,7 @@
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
     </row>
-    <row r="20" spans="2:17" s="34" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:17" s="34" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -15754,7 +15943,7 @@
       <c r="P20" s="5"/>
       <c r="Q20" s="33"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -15772,7 +15961,7 @@
       <c r="P21" s="5"/>
       <c r="Q21" s="34"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.35">
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
@@ -15783,7 +15972,7 @@
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
     </row>
-    <row r="23" spans="2:17" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:17" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B23" s="48"/>
       <c r="C23" s="1" t="s">
         <v>115</v>
@@ -15803,7 +15992,7 @@
       <c r="P23"/>
       <c r="Q23" s="33"/>
     </row>
-    <row r="24" spans="2:17" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:17" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B24" s="56"/>
       <c r="C24" s="1" t="s">
         <v>116</v>
@@ -15821,7 +16010,7 @@
       <c r="O24"/>
       <c r="P24"/>
     </row>
-    <row r="25" spans="2:17" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:17" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
@@ -15837,35 +16026,35 @@
       <c r="O25"/>
       <c r="P25"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.35">
       <c r="G26" s="35"/>
       <c r="Q26" s="35"/>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.35">
       <c r="G30" s="36"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.35">
       <c r="G31" s="36"/>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.35">
       <c r="G32" s="36"/>
     </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G33" s="36"/>
     </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G34" s="36"/>
     </row>
-    <row r="35" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G35" s="36"/>
     </row>
-    <row r="36" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G36" s="36"/>
     </row>
-    <row r="37" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G37" s="36"/>
     </row>
-    <row r="38" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G38" s="36"/>
     </row>
   </sheetData>
@@ -15885,28 +16074,28 @@
       <selection activeCell="E1" sqref="E1:G65536"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2" style="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.86328125" customWidth="1"/>
+    <col min="3" max="3" width="11.86328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.265625" customWidth="1"/>
     <col min="7" max="7" width="2" style="33" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="40.5703125" customWidth="1"/>
-    <col min="12" max="12" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.86328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="40.59765625" customWidth="1"/>
+    <col min="12" max="12" width="6.1328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.1328125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.85546875" style="33"/>
+    <col min="17" max="16384" width="8.86328125" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:17" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B1" s="30" t="s">
         <v>66</v>
       </c>
@@ -15923,7 +16112,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:17" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B2" s="14"/>
       <c r="C2" s="14" t="str">
         <f>'EB1'!O2</f>
@@ -15953,7 +16142,7 @@
       <c r="O2" s="102"/>
       <c r="P2" s="102"/>
     </row>
-    <row r="3" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:17" ht="15.75" x14ac:dyDescent="0.5">
       <c r="C3" s="14" t="str">
         <f>'EB1'!P2</f>
         <v>HYD</v>
@@ -15994,7 +16183,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:17" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:17" ht="22.15" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1"/>
       <c r="C4" s="14" t="str">
         <f>'EB1'!Q2</f>
@@ -16036,7 +16225,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17" ht="15.75" x14ac:dyDescent="0.5">
       <c r="C5" s="14" t="str">
         <f>'EB1'!R2</f>
         <v>SOL</v>
@@ -16070,7 +16259,7 @@
       <c r="O5" s="106"/>
       <c r="P5" s="106"/>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="H6" s="106"/>
@@ -16092,7 +16281,7 @@
       <c r="O6" s="106"/>
       <c r="P6" s="106"/>
     </row>
-    <row r="7" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17" ht="15.75" x14ac:dyDescent="0.5">
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
       <c r="H7" s="106"/>
@@ -16114,7 +16303,7 @@
       <c r="O7" s="106"/>
       <c r="P7" s="106"/>
     </row>
-    <row r="8" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" ht="15.75" x14ac:dyDescent="0.5">
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="H8" s="106"/>
@@ -16136,7 +16325,7 @@
       <c r="O8" s="106"/>
       <c r="P8" s="106"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:17" ht="13.15" x14ac:dyDescent="0.4">
       <c r="D10" s="4" t="s">
         <v>13</v>
       </c>
@@ -16153,7 +16342,7 @@
       <c r="O10" s="108"/>
       <c r="P10" s="108"/>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:17" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
         <v>1</v>
       </c>
@@ -16197,7 +16386,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="2:17" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="18" t="s">
         <v>39</v>
       </c>
@@ -16241,7 +16430,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="2:17" s="35" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17" s="35" customFormat="1" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="18" t="s">
         <v>77</v>
       </c>
@@ -16269,7 +16458,7 @@
       <c r="P13" s="109"/>
       <c r="Q13" s="33"/>
     </row>
-    <row r="14" spans="2:17" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:17" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B14" s="10" t="str">
         <f>J14</f>
         <v>MINBIO1</v>
@@ -16308,7 +16497,7 @@
       <c r="O14" s="107"/>
       <c r="P14" s="107"/>
     </row>
-    <row r="15" spans="2:17" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:17" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="str">
         <f>J15</f>
         <v>MINHYD1</v>
@@ -16342,7 +16531,7 @@
       <c r="O15" s="107"/>
       <c r="P15" s="107"/>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B16" s="10" t="str">
         <f>J16</f>
         <v>MINWIN1</v>
@@ -16378,7 +16567,7 @@
       <c r="P16" s="107"/>
       <c r="Q16" s="35"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B17" s="10" t="str">
         <f>J17</f>
         <v>MINSOL1</v>
@@ -16412,7 +16601,7 @@
       <c r="O17" s="107"/>
       <c r="P17" s="107"/>
     </row>
-    <row r="18" spans="2:17" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:17" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="5"/>
@@ -16430,7 +16619,7 @@
       <c r="P18" s="5"/>
       <c r="Q18" s="33"/>
     </row>
-    <row r="19" spans="2:17" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:17" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D19"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -16444,7 +16633,7 @@
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B20" s="48"/>
       <c r="C20" s="1" t="s">
         <v>115</v>
@@ -16463,7 +16652,7 @@
       <c r="P20" s="5"/>
       <c r="Q20" s="35"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B21" s="56"/>
       <c r="C21" s="1" t="s">
         <v>116</v>
@@ -16481,7 +16670,7 @@
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
     </row>
-    <row r="22" spans="2:17" s="34" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:17" s="34" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -16499,7 +16688,7 @@
       <c r="P22" s="5"/>
       <c r="Q22" s="33"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -16517,7 +16706,7 @@
       <c r="P23" s="5"/>
       <c r="Q23" s="34"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.35">
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
@@ -16528,7 +16717,7 @@
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
     </row>
-    <row r="25" spans="2:17" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:17" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E25"/>
       <c r="F25"/>
       <c r="G25" s="33"/>
@@ -16543,7 +16732,7 @@
       <c r="P25"/>
       <c r="Q25" s="33"/>
     </row>
-    <row r="26" spans="2:17" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:17" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E26"/>
       <c r="F26"/>
       <c r="H26"/>
@@ -16556,7 +16745,7 @@
       <c r="O26"/>
       <c r="P26"/>
     </row>
-    <row r="27" spans="2:17" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:17" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
@@ -16572,35 +16761,35 @@
       <c r="O27"/>
       <c r="P27"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.35">
       <c r="G28" s="35"/>
       <c r="Q28" s="35"/>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.35">
       <c r="G32" s="36"/>
     </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G33" s="36"/>
     </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G34" s="36"/>
     </row>
-    <row r="35" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G35" s="36"/>
     </row>
-    <row r="36" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G36" s="36"/>
     </row>
-    <row r="37" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G37" s="36"/>
     </row>
-    <row r="38" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G38" s="36"/>
     </row>
-    <row r="39" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G39" s="36"/>
     </row>
-    <row r="40" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G40" s="36"/>
     </row>
   </sheetData>
@@ -16620,27 +16809,27 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.73046875" customWidth="1"/>
     <col min="7" max="7" width="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.86328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.1328125" customWidth="1"/>
+    <col min="10" max="10" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.3984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.1328125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.1328125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:22" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B1" s="30" t="s">
         <v>66</v>
       </c>
@@ -16657,7 +16846,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:22" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B2" s="14" t="s">
         <v>112</v>
       </c>
@@ -16689,7 +16878,7 @@
       <c r="O2" s="102"/>
       <c r="P2" s="102"/>
     </row>
-    <row r="3" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:22" ht="15.75" x14ac:dyDescent="0.5">
       <c r="C3" s="14" t="str">
         <f>'EB1'!H$2</f>
         <v>KER</v>
@@ -16730,7 +16919,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:22" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:22" ht="22.15" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" s="14" t="str">
         <f>'EB1'!I$2</f>
         <v>LPG</v>
@@ -16773,7 +16962,7 @@
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
     </row>
-    <row r="5" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:22" ht="15.75" x14ac:dyDescent="0.5">
       <c r="C5" s="14" t="str">
         <f>'EB1'!J$2</f>
         <v>GSL</v>
@@ -16812,7 +17001,7 @@
       <c r="U5" s="5"/>
       <c r="V5" s="5"/>
     </row>
-    <row r="6" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:22" ht="15.75" x14ac:dyDescent="0.5">
       <c r="C6" s="14" t="str">
         <f>'EB1'!K$2</f>
         <v>NAP</v>
@@ -16849,7 +17038,7 @@
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
     </row>
-    <row r="7" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:22" ht="15.75" x14ac:dyDescent="0.5">
       <c r="C7" s="14" t="str">
         <f>'EB1'!L$2</f>
         <v>HFO</v>
@@ -16885,7 +17074,7 @@
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
     </row>
-    <row r="8" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:22" ht="15.75" x14ac:dyDescent="0.5">
       <c r="C8" s="14" t="str">
         <f>'EB1'!M$2</f>
         <v>OPP</v>
@@ -16919,7 +17108,7 @@
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.35">
       <c r="H9" s="106"/>
       <c r="I9" s="107"/>
       <c r="J9" s="106" t="str">
@@ -16941,7 +17130,7 @@
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
     </row>
-    <row r="10" spans="2:22" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:22" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B10"/>
       <c r="C10"/>
       <c r="D10"/>
@@ -16969,7 +17158,7 @@
       <c r="U10"/>
       <c r="V10"/>
     </row>
-    <row r="11" spans="2:22" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:22" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H11" s="106"/>
       <c r="I11" s="107"/>
       <c r="J11" s="106" t="str">
@@ -16990,7 +17179,7 @@
       <c r="P11" s="106"/>
       <c r="Q11"/>
     </row>
-    <row r="12" spans="2:22" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:22" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H12"/>
       <c r="I12"/>
       <c r="J12"/>
@@ -17002,7 +17191,7 @@
       <c r="P12"/>
       <c r="Q12"/>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:22" ht="13.15" x14ac:dyDescent="0.4">
       <c r="D13" s="4" t="s">
         <v>13</v>
       </c>
@@ -17022,7 +17211,7 @@
       <c r="U13" s="5"/>
       <c r="V13" s="5"/>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:22" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
         <v>1</v>
       </c>
@@ -17069,7 +17258,7 @@
       <c r="U14" s="5"/>
       <c r="V14" s="5"/>
     </row>
-    <row r="15" spans="2:22" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:22" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B15" s="18" t="s">
         <v>39</v>
       </c>
@@ -17115,7 +17304,7 @@
       <c r="U15" s="5"/>
       <c r="V15" s="5"/>
     </row>
-    <row r="16" spans="2:22" s="5" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:22" s="5" customFormat="1" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B16" s="18" t="s">
         <v>77</v>
       </c>
@@ -17145,7 +17334,7 @@
       <c r="U16"/>
       <c r="V16"/>
     </row>
-    <row r="17" spans="2:22" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:22" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B17" s="10" t="str">
         <f t="shared" ref="B17:B30" si="2">J17</f>
         <v>IMPDSL1</v>
@@ -17185,7 +17374,7 @@
       <c r="U17"/>
       <c r="V17"/>
     </row>
-    <row r="18" spans="2:22" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:22" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B18" s="10" t="str">
         <f t="shared" si="2"/>
         <v>IMPKER1</v>
@@ -17222,7 +17411,7 @@
       <c r="U18"/>
       <c r="V18"/>
     </row>
-    <row r="19" spans="2:22" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:22" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B19" s="10" t="str">
         <f t="shared" si="2"/>
         <v>IMPLPG1</v>
@@ -17259,7 +17448,7 @@
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
     </row>
-    <row r="20" spans="2:22" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:22" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B20" s="10" t="str">
         <f t="shared" si="2"/>
         <v>IMPGSL1</v>
@@ -17296,7 +17485,7 @@
       <c r="U20"/>
       <c r="V20"/>
     </row>
-    <row r="21" spans="2:22" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:22" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B21" s="10" t="str">
         <f t="shared" si="2"/>
         <v>IMPNAP1</v>
@@ -17336,7 +17525,7 @@
       <c r="U21"/>
       <c r="V21"/>
     </row>
-    <row r="22" spans="2:22" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:22" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B22" s="10" t="str">
         <f t="shared" si="2"/>
         <v>IMPHFO1</v>
@@ -17374,7 +17563,7 @@
       <c r="U22"/>
       <c r="V22"/>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B23" s="10" t="str">
         <f t="shared" si="2"/>
         <v>IMPOPP1</v>
@@ -17409,7 +17598,7 @@
       <c r="P23" s="107"/>
       <c r="Q23" s="5"/>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B24" s="10" t="str">
         <f t="shared" si="2"/>
         <v>EXPDSL1</v>
@@ -17450,7 +17639,7 @@
       <c r="P24" s="107"/>
       <c r="S24" s="1"/>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B25" s="10" t="str">
         <f t="shared" si="2"/>
         <v>EXPKER1</v>
@@ -17489,7 +17678,7 @@
       <c r="Q25" s="5"/>
       <c r="R25" s="1"/>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B26" s="10" t="str">
         <f t="shared" si="2"/>
         <v>EXPLPG1</v>
@@ -17527,7 +17716,7 @@
       <c r="P26" s="107"/>
       <c r="Q26" s="5"/>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B27" s="10" t="str">
         <f t="shared" si="2"/>
         <v>EXPGSL1</v>
@@ -17565,7 +17754,7 @@
       <c r="P27" s="107"/>
       <c r="Q27" s="5"/>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B28" s="10" t="str">
         <f t="shared" si="2"/>
         <v>EXPNAP1</v>
@@ -17603,7 +17792,7 @@
       <c r="P28" s="108"/>
       <c r="Q28" s="5"/>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B29" s="10" t="str">
         <f t="shared" si="2"/>
         <v>EXPHFO1</v>
@@ -17640,7 +17829,7 @@
       <c r="O29" s="108"/>
       <c r="P29" s="108"/>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B30" s="10" t="str">
         <f t="shared" si="2"/>
         <v>EXPOPP1</v>
@@ -17677,13 +17866,13 @@
       <c r="O30" s="108"/>
       <c r="P30" s="108"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B35" s="48"/>
       <c r="C35" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B36" s="56"/>
       <c r="C36" s="1" t="s">
         <v>116</v>
@@ -17706,27 +17895,27 @@
       <selection activeCell="D11" sqref="D11:H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.73046875" customWidth="1"/>
     <col min="7" max="7" width="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.86328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.1328125" customWidth="1"/>
+    <col min="10" max="10" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.3984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.1328125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.1328125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:22" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B1" s="30" t="s">
         <v>66</v>
       </c>
@@ -17743,7 +17932,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:22" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B2" s="14" t="s">
         <v>112</v>
       </c>
@@ -17775,7 +17964,7 @@
       <c r="O2" s="102"/>
       <c r="P2" s="102"/>
     </row>
-    <row r="3" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:22" ht="15.75" x14ac:dyDescent="0.5">
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="H3" s="103" t="s">
@@ -17806,7 +17995,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:22" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:22" ht="22.15" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="H4" s="105" t="s">
@@ -17839,7 +18028,7 @@
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
     </row>
-    <row r="5" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:22" ht="15.75" x14ac:dyDescent="0.5">
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
       <c r="H5" s="10"/>
@@ -17857,7 +18046,7 @@
       <c r="U5" s="5"/>
       <c r="V5" s="5"/>
     </row>
-    <row r="6" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:22" ht="15.75" x14ac:dyDescent="0.5">
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="H6" s="10"/>
@@ -17875,7 +18064,7 @@
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
     </row>
-    <row r="7" spans="2:22" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:22" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H7"/>
       <c r="I7"/>
       <c r="J7"/>
@@ -17887,7 +18076,7 @@
       <c r="P7"/>
       <c r="Q7"/>
     </row>
-    <row r="8" spans="2:22" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:22" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H8"/>
       <c r="I8"/>
       <c r="J8"/>
@@ -17899,7 +18088,7 @@
       <c r="P8"/>
       <c r="Q8"/>
     </row>
-    <row r="9" spans="2:22" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:22" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H9"/>
       <c r="I9"/>
       <c r="J9"/>
@@ -17911,7 +18100,7 @@
       <c r="P9"/>
       <c r="Q9"/>
     </row>
-    <row r="10" spans="2:22" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:22" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H10"/>
       <c r="I10"/>
       <c r="J10"/>
@@ -17923,7 +18112,7 @@
       <c r="P10"/>
       <c r="Q10"/>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:22" ht="13.15" x14ac:dyDescent="0.4">
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="H11" s="101"/>
@@ -17939,7 +18128,7 @@
       <c r="U11" s="5"/>
       <c r="V11" s="5"/>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:22" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B12" s="3" t="s">
         <v>1</v>
       </c>
@@ -17986,7 +18175,7 @@
       <c r="U12" s="5"/>
       <c r="V12" s="5"/>
     </row>
-    <row r="13" spans="2:22" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:22" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="18" t="s">
         <v>39</v>
       </c>
@@ -18032,7 +18221,7 @@
       <c r="U13" s="5"/>
       <c r="V13" s="5"/>
     </row>
-    <row r="14" spans="2:22" s="5" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:22" s="5" customFormat="1" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="18" t="s">
         <v>77</v>
       </c>
@@ -18062,7 +18251,7 @@
       <c r="U14"/>
       <c r="V14"/>
     </row>
-    <row r="15" spans="2:22" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:22" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="str">
         <f>J15</f>
         <v>IMPELC1</v>
@@ -18107,7 +18296,7 @@
       <c r="U15"/>
       <c r="V15"/>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B16" s="10" t="str">
         <f>J16</f>
         <v>EXPELC1</v>
@@ -18150,13 +18339,13 @@
       <c r="P16" s="107"/>
       <c r="S16" s="1"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B21" s="48"/>
       <c r="C21" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B22" s="56"/>
       <c r="C22" s="1" t="s">
         <v>116</v>
